--- a/Project_Design/요구 사항 분석서/요구 사항 분석서.xlsx
+++ b/Project_Design/요구 사항 분석서/요구 사항 분석서.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="357">
   <si>
     <t>요구사항 명</t>
   </si>
@@ -1089,6 +1089,15 @@
   </si>
   <si>
     <t>-학교와 각 부서들의 위치를 화면에 표시함</t>
+  </si>
+  <si>
+    <t>멘토별 순위 / 베스트 멘토</t>
+  </si>
+  <si>
+    <t>-멘토를 별점순으로 순위를 매기기</t>
+  </si>
+  <si>
+    <t>-멘토를 별점순으로 순위를 매길 수 있도록 함</t>
   </si>
 </sst>
 </file>
@@ -3190,8 +3199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S122"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" tabSelected="1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="G116" sqref="G116:G117"/>
+    <sheetView topLeftCell="A28" tabSelected="1" zoomScale="80" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43:G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -4129,7 +4138,7 @@
         <v>0</v>
       </c>
       <c r="B33" s="172" t="s">
-        <v>293</v>
+        <v>354</v>
       </c>
       <c r="C33" s="172"/>
       <c r="D33" s="201" t="s">
@@ -4273,12 +4282,14 @@
       <c r="R37" s="183"/>
       <c r="S37" s="180"/>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" spans="1:19" ht="25.500000">
       <c r="A38" s="205" t="s">
         <v>6</v>
       </c>
       <c r="B38" s="173"/>
-      <c r="C38" s="172"/>
+      <c r="C38" s="172" t="s">
+        <v>356</v>
+      </c>
       <c r="D38" s="201"/>
       <c r="E38" s="87" t="s">
         <v>6</v>

--- a/Project_Design/요구 사항 분석서/요구 사항 분석서.xlsx
+++ b/Project_Design/요구 사항 분석서/요구 사항 분석서.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="360">
   <si>
     <t>요구사항 명</t>
   </si>
@@ -1098,6 +1098,15 @@
   </si>
   <si>
     <t>-멘토를 별점순으로 순위를 매길 수 있도록 함</t>
+  </si>
+  <si>
+    <t>알림</t>
+  </si>
+  <si>
+    <t>알림 기능</t>
+  </si>
+  <si>
+    <t>-멘토링 예약이 성공하거나, 취소될 때 사용자에게 알림기능을 제공함</t>
   </si>
 </sst>
 </file>
@@ -3199,8 +3208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S122"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" tabSelected="1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43:G43"/>
+    <sheetView topLeftCell="A94" tabSelected="1" zoomScale="80" workbookViewId="0">
+      <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -5724,7 +5733,17 @@
       <c r="G112" s="181"/>
       <c r="H112" s="251"/>
     </row>
-    <row r="113" spans="5:8">
+    <row r="113" spans="1:8">
+      <c r="A113" s="200" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113" s="172" t="s">
+        <v>357</v>
+      </c>
+      <c r="C113" s="172"/>
+      <c r="D113" s="201" t="s">
+        <v>11</v>
+      </c>
       <c r="E113" s="200" t="s">
         <v>0</v>
       </c>
@@ -5736,7 +5755,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="5:8">
+    <row r="114" spans="1:8">
+      <c r="A114" s="202" t="s">
+        <v>167</v>
+      </c>
+      <c r="B114" s="174" t="s">
+        <v>76</v>
+      </c>
+      <c r="C114" s="174"/>
+      <c r="D114" s="203"/>
       <c r="E114" s="202" t="s">
         <v>167</v>
       </c>
@@ -5746,7 +5773,15 @@
       <c r="G114" s="174"/>
       <c r="H114" s="203"/>
     </row>
-    <row r="115" spans="5:8">
+    <row r="115" spans="1:8">
+      <c r="A115" s="204" t="s">
+        <v>2</v>
+      </c>
+      <c r="B115" s="172" t="s">
+        <v>358</v>
+      </c>
+      <c r="C115" s="172"/>
+      <c r="D115" s="201"/>
       <c r="E115" s="204" t="s">
         <v>2</v>
       </c>
@@ -5756,7 +5791,17 @@
       <c r="G115" s="172"/>
       <c r="H115" s="201"/>
     </row>
-    <row r="116" spans="5:8">
+    <row r="116" spans="1:8">
+      <c r="A116" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="B116" s="173" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116" s="176" t="s">
+        <v>359</v>
+      </c>
+      <c r="D116" s="201"/>
       <c r="E116" s="87" t="s">
         <v>15</v>
       </c>
@@ -5768,7 +5813,13 @@
       </c>
       <c r="H116" s="201"/>
     </row>
-    <row r="117" spans="5:8">
+    <row r="117" spans="1:8">
+      <c r="A117" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B117" s="173"/>
+      <c r="C117" s="178"/>
+      <c r="D117" s="201"/>
       <c r="E117" s="87" t="s">
         <v>5</v>
       </c>
@@ -5776,7 +5827,13 @@
       <c r="G117" s="178"/>
       <c r="H117" s="201"/>
     </row>
-    <row r="118" spans="5:8">
+    <row r="118" spans="1:8">
+      <c r="A118" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="B118" s="173"/>
+      <c r="C118" s="172"/>
+      <c r="D118" s="201"/>
       <c r="E118" s="87" t="s">
         <v>6</v>
       </c>
@@ -5784,13 +5841,23 @@
       <c r="G118" s="172"/>
       <c r="H118" s="201"/>
     </row>
-    <row r="119" spans="5:8">
+    <row r="119" spans="1:8">
+      <c r="A119" s="87"/>
+      <c r="B119" s="173"/>
+      <c r="C119" s="172"/>
+      <c r="D119" s="206"/>
       <c r="E119" s="87"/>
       <c r="F119" s="173"/>
       <c r="G119" s="172"/>
       <c r="H119" s="206"/>
     </row>
-    <row r="120" spans="5:8">
+    <row r="120" spans="1:8">
+      <c r="A120" s="87"/>
+      <c r="B120" s="172" t="s">
+        <v>19</v>
+      </c>
+      <c r="C120" s="172"/>
+      <c r="D120" s="206"/>
       <c r="E120" s="87"/>
       <c r="F120" s="172" t="s">
         <v>19</v>
@@ -5798,7 +5865,13 @@
       <c r="G120" s="172"/>
       <c r="H120" s="206"/>
     </row>
-    <row r="121" spans="5:8">
+    <row r="121" spans="1:8">
+      <c r="A121" s="87"/>
+      <c r="B121" s="172" t="s">
+        <v>14</v>
+      </c>
+      <c r="C121" s="172"/>
+      <c r="D121" s="206"/>
       <c r="E121" s="87"/>
       <c r="F121" s="172" t="s">
         <v>14</v>
@@ -5806,14 +5879,18 @@
       <c r="G121" s="172"/>
       <c r="H121" s="206"/>
     </row>
-    <row r="122" spans="5:8">
+    <row r="122" spans="1:8">
+      <c r="A122" s="181"/>
+      <c r="B122" s="181"/>
+      <c r="C122" s="181"/>
+      <c r="D122" s="251"/>
       <c r="E122" s="181"/>
       <c r="F122" s="181"/>
       <c r="G122" s="181"/>
       <c r="H122" s="251"/>
     </row>
   </sheetData>
-  <mergeCells count="214">
+  <mergeCells count="222">
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:H2"/>
@@ -6020,10 +6097,18 @@
     <mergeCell ref="F106:F109"/>
     <mergeCell ref="G106:G107"/>
     <mergeCell ref="H106:H108"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="D113:D115"/>
     <mergeCell ref="F113:G113"/>
     <mergeCell ref="H113:H115"/>
+    <mergeCell ref="B114:C114"/>
     <mergeCell ref="F114:G114"/>
+    <mergeCell ref="B115:C115"/>
     <mergeCell ref="F115:G115"/>
+    <mergeCell ref="A116:A121"/>
+    <mergeCell ref="B116:B119"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="D116:D118"/>
     <mergeCell ref="E116:E121"/>
     <mergeCell ref="F116:F119"/>
     <mergeCell ref="G116:G117"/>

--- a/Project_Design/요구 사항 분석서/요구 사항 분석서.xlsx
+++ b/Project_Design/요구 사항 분석서/요구 사항 분석서.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.104.121.46349"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="450" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="440" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="사용자 요구사항 분석서" sheetId="2" r:id="rId1"/>
@@ -3208,8 +3208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S122"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" tabSelected="1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="C118" sqref="C118"/>
+    <sheetView topLeftCell="A43" tabSelected="1" view="pageBreakPreview" zoomScale="40" zoomScaleNormal="30" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection activeCell="J71" sqref="J71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -6115,8 +6115,21 @@
     <mergeCell ref="H116:H118"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+  <rowBreaks count="5" manualBreakCount="5">
+    <brk id="22" max="16383" man="1"/>
+    <brk id="42" max="16383" man="1"/>
+    <brk id="62" max="16383" man="1"/>
+    <brk id="82" max="16383" man="1"/>
+    <brk id="102" max="16383" man="1"/>
+  </rowBreaks>
+  <colBreaks count="3" manualBreakCount="3">
+    <brk id="4" max="1048575" man="1"/>
+    <brk id="8" max="1048575" man="1"/>
+    <brk id="12" max="1048575" man="1"/>
+  </colBreaks>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Project_Design/요구 사항 분석서/요구 사항 분석서.xlsx
+++ b/Project_Design/요구 사항 분석서/요구 사항 분석서.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.104.121.46349"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="440" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="430" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="사용자 요구사항 분석서" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="361">
   <si>
     <t>요구사항 명</t>
   </si>
@@ -1107,6 +1107,9 @@
   </si>
   <si>
     <t>-멘토링 예약이 성공하거나, 취소될 때 사용자에게 알림기능을 제공함</t>
+  </si>
+  <si>
+    <t>-사용자가 질문한 글에 각 부서 담당자가 답변할 수 있게 함</t>
   </si>
 </sst>
 </file>
@@ -3208,8 +3211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S122"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" tabSelected="1" view="pageBreakPreview" zoomScale="40" zoomScaleNormal="30" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="J71" sqref="J71"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="40" zoomScaleNormal="30" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -3386,7 +3389,7 @@
       <c r="O5" s="88"/>
       <c r="P5" s="155"/>
     </row>
-    <row r="6" spans="1:19" ht="25.500000" customHeight="1">
+    <row r="6" spans="1:19" ht="15.000000" customHeight="1">
       <c r="A6" s="87" t="s">
         <v>15</v>
       </c>
@@ -3416,7 +3419,7 @@
         <v>7</v>
       </c>
       <c r="K6" s="88" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="L6" s="90"/>
       <c r="M6" s="87" t="s">
@@ -3430,7 +3433,7 @@
       </c>
       <c r="P6" s="90"/>
     </row>
-    <row r="7" spans="1:19" ht="25.500000" customHeight="1">
+    <row r="7" spans="1:19" ht="15.000000" customHeight="1">
       <c r="A7" s="87" t="s">
         <v>5</v>
       </c>
@@ -3456,7 +3459,7 @@
       <c r="O7" s="92"/>
       <c r="P7" s="91"/>
     </row>
-    <row r="8" spans="1:19" ht="25.500000" customHeight="1">
+    <row r="8" spans="1:19" ht="15.000000" customHeight="1">
       <c r="A8" s="87" t="s">
         <v>6</v>
       </c>
@@ -3484,7 +3487,7 @@
       <c r="O8" s="88"/>
       <c r="P8" s="92"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" ht="15.000000" customHeight="1">
       <c r="A9" s="87"/>
       <c r="B9" s="173"/>
       <c r="C9" s="178"/>
@@ -3502,7 +3505,7 @@
       <c r="O9" s="88"/>
       <c r="P9" s="88"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" ht="15.000000" customHeight="1">
       <c r="A10" s="87"/>
       <c r="B10" s="172" t="s">
         <v>19</v>
@@ -3530,7 +3533,7 @@
       <c r="O10" s="88"/>
       <c r="P10" s="88"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" ht="15.000000" customHeight="1">
       <c r="A11" s="87"/>
       <c r="B11" s="172" t="s">
         <v>14</v>
@@ -3681,7 +3684,7 @@
       <c r="R15" s="183"/>
       <c r="S15" s="180"/>
     </row>
-    <row r="16" spans="1:19" ht="25.500000" customHeight="1">
+    <row r="16" spans="1:19" ht="15.000000" customHeight="1">
       <c r="A16" s="87" t="s">
         <v>15</v>
       </c>
@@ -3720,7 +3723,7 @@
       <c r="R16" s="183"/>
       <c r="S16" s="180"/>
     </row>
-    <row r="17" spans="1:19" ht="25.500000" customHeight="1">
+    <row r="17" spans="1:19" ht="15.000000" customHeight="1">
       <c r="A17" s="87" t="s">
         <v>5</v>
       </c>
@@ -3747,7 +3750,7 @@
       <c r="R17" s="183"/>
       <c r="S17" s="180"/>
     </row>
-    <row r="18" spans="1:19" ht="25.500000">
+    <row r="18" spans="1:19" ht="15.000000" customHeight="1">
       <c r="A18" s="87" t="s">
         <v>6</v>
       </c>
@@ -3776,7 +3779,7 @@
       <c r="R18" s="183"/>
       <c r="S18" s="180"/>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" ht="15.000000" customHeight="1">
       <c r="A19" s="87"/>
       <c r="B19" s="155"/>
       <c r="C19" s="92"/>
@@ -3797,7 +3800,7 @@
       <c r="R19" s="183"/>
       <c r="S19" s="180"/>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" ht="15.000000" customHeight="1">
       <c r="A20" s="87"/>
       <c r="B20" s="88" t="s">
         <v>19</v>
@@ -3826,7 +3829,7 @@
       <c r="R20" s="183"/>
       <c r="S20" s="180"/>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" ht="15.000000" customHeight="1">
       <c r="A21" s="87"/>
       <c r="B21" s="88" t="s">
         <v>14</v>
@@ -3965,7 +3968,7 @@
       <c r="R25" s="183"/>
       <c r="S25" s="180"/>
     </row>
-    <row r="26" spans="1:19" ht="25.500000" customHeight="1">
+    <row r="26" spans="1:19" ht="15.000000" customHeight="1">
       <c r="A26" s="205" t="s">
         <v>15</v>
       </c>
@@ -3998,7 +4001,7 @@
       <c r="R26" s="183"/>
       <c r="S26" s="180"/>
     </row>
-    <row r="27" spans="1:19" ht="25.500000">
+    <row r="27" spans="1:19" ht="15.000000" customHeight="1">
       <c r="A27" s="205" t="s">
         <v>5</v>
       </c>
@@ -4025,7 +4028,7 @@
       <c r="R27" s="183"/>
       <c r="S27" s="180"/>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" ht="15.000000" customHeight="1">
       <c r="A28" s="205" t="s">
         <v>6</v>
       </c>
@@ -4050,7 +4053,7 @@
       <c r="R28" s="183"/>
       <c r="S28" s="180"/>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" ht="15.000000" customHeight="1">
       <c r="A29" s="205"/>
       <c r="B29" s="173"/>
       <c r="C29" s="172"/>
@@ -4071,7 +4074,7 @@
       <c r="R29" s="183"/>
       <c r="S29" s="180"/>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" ht="15.000000" customHeight="1">
       <c r="A30" s="205"/>
       <c r="B30" s="172" t="s">
         <v>19</v>
@@ -4096,7 +4099,7 @@
       <c r="R30" s="183"/>
       <c r="S30" s="180"/>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" ht="15.000000" customHeight="1">
       <c r="A31" s="205"/>
       <c r="B31" s="172" t="s">
         <v>14</v>
@@ -4233,7 +4236,7 @@
       <c r="R35" s="183"/>
       <c r="S35" s="180"/>
     </row>
-    <row r="36" spans="1:19" ht="25.500000" customHeight="1">
+    <row r="36" spans="1:19" ht="15.000000" customHeight="1">
       <c r="A36" s="205" t="s">
         <v>15</v>
       </c>
@@ -4266,7 +4269,7 @@
       <c r="R36" s="183"/>
       <c r="S36" s="180"/>
     </row>
-    <row r="37" spans="1:19" ht="25.500000">
+    <row r="37" spans="1:19" ht="15.000000" customHeight="1">
       <c r="A37" s="205" t="s">
         <v>5</v>
       </c>
@@ -4291,7 +4294,7 @@
       <c r="R37" s="183"/>
       <c r="S37" s="180"/>
     </row>
-    <row r="38" spans="1:19" ht="25.500000">
+    <row r="38" spans="1:19" ht="15.000000" customHeight="1">
       <c r="A38" s="205" t="s">
         <v>6</v>
       </c>
@@ -4318,7 +4321,7 @@
       <c r="R38" s="183"/>
       <c r="S38" s="180"/>
     </row>
-    <row r="39" spans="1:19">
+    <row r="39" spans="1:19" ht="15.000000" customHeight="1">
       <c r="A39" s="205"/>
       <c r="B39" s="173"/>
       <c r="C39" s="172"/>
@@ -4339,7 +4342,7 @@
       <c r="R39" s="183"/>
       <c r="S39" s="180"/>
     </row>
-    <row r="40" spans="1:19">
+    <row r="40" spans="1:19" ht="15.000000" customHeight="1">
       <c r="A40" s="205"/>
       <c r="B40" s="172" t="s">
         <v>19</v>
@@ -4364,7 +4367,7 @@
       <c r="R40" s="183"/>
       <c r="S40" s="180"/>
     </row>
-    <row r="41" spans="1:19">
+    <row r="41" spans="1:19" ht="15.000000" customHeight="1">
       <c r="A41" s="205"/>
       <c r="B41" s="172" t="s">
         <v>14</v>
@@ -4501,7 +4504,7 @@
       <c r="R45" s="183"/>
       <c r="S45" s="180"/>
     </row>
-    <row r="46" spans="1:19">
+    <row r="46" spans="1:19" ht="15.000000" customHeight="1">
       <c r="A46" s="87" t="s">
         <v>15</v>
       </c>
@@ -4534,7 +4537,7 @@
       <c r="R46" s="183"/>
       <c r="S46" s="180"/>
     </row>
-    <row r="47" spans="1:19">
+    <row r="47" spans="1:19" ht="15.000000" customHeight="1">
       <c r="A47" s="87" t="s">
         <v>5</v>
       </c>
@@ -4559,7 +4562,7 @@
       <c r="R47" s="183"/>
       <c r="S47" s="180"/>
     </row>
-    <row r="48" spans="1:19">
+    <row r="48" spans="1:19" ht="15.000000" customHeight="1">
       <c r="A48" s="87" t="s">
         <v>6</v>
       </c>
@@ -4584,7 +4587,7 @@
       <c r="R48" s="183"/>
       <c r="S48" s="180"/>
     </row>
-    <row r="49" spans="1:19">
+    <row r="49" spans="1:19" ht="15.000000" customHeight="1">
       <c r="A49" s="87"/>
       <c r="B49" s="173"/>
       <c r="C49" s="172"/>
@@ -4605,7 +4608,7 @@
       <c r="R49" s="183"/>
       <c r="S49" s="180"/>
     </row>
-    <row r="50" spans="1:19">
+    <row r="50" spans="1:19" ht="15.000000" customHeight="1">
       <c r="A50" s="87"/>
       <c r="B50" s="172" t="s">
         <v>19</v>
@@ -4630,7 +4633,7 @@
       <c r="R50" s="183"/>
       <c r="S50" s="180"/>
     </row>
-    <row r="51" spans="1:19">
+    <row r="51" spans="1:19" ht="15.000000" customHeight="1">
       <c r="A51" s="87"/>
       <c r="B51" s="172" t="s">
         <v>14</v>
@@ -4767,7 +4770,7 @@
       <c r="R55" s="183"/>
       <c r="S55" s="180"/>
     </row>
-    <row r="56" spans="1:19">
+    <row r="56" spans="1:19" ht="15.000000" customHeight="1">
       <c r="A56" s="87" t="s">
         <v>15</v>
       </c>
@@ -4800,7 +4803,7 @@
       <c r="R56" s="183"/>
       <c r="S56" s="180"/>
     </row>
-    <row r="57" spans="1:19">
+    <row r="57" spans="1:19" ht="15.000000" customHeight="1">
       <c r="A57" s="87" t="s">
         <v>5</v>
       </c>
@@ -4825,7 +4828,7 @@
       <c r="R57" s="183"/>
       <c r="S57" s="180"/>
     </row>
-    <row r="58" spans="1:19">
+    <row r="58" spans="1:19" ht="15.000000" customHeight="1">
       <c r="A58" s="87" t="s">
         <v>6</v>
       </c>
@@ -4850,7 +4853,7 @@
       <c r="R58" s="183"/>
       <c r="S58" s="180"/>
     </row>
-    <row r="59" spans="1:19">
+    <row r="59" spans="1:19" ht="15.000000" customHeight="1">
       <c r="A59" s="87"/>
       <c r="B59" s="173"/>
       <c r="C59" s="172"/>
@@ -4871,7 +4874,7 @@
       <c r="R59" s="183"/>
       <c r="S59" s="180"/>
     </row>
-    <row r="60" spans="1:19">
+    <row r="60" spans="1:19" ht="15.000000" customHeight="1">
       <c r="A60" s="87"/>
       <c r="B60" s="172" t="s">
         <v>19</v>
@@ -4896,7 +4899,7 @@
       <c r="R60" s="183"/>
       <c r="S60" s="180"/>
     </row>
-    <row r="61" spans="1:19">
+    <row r="61" spans="1:19" ht="15.000000" customHeight="1">
       <c r="A61" s="87"/>
       <c r="B61" s="172" t="s">
         <v>14</v>
@@ -5011,7 +5014,7 @@
       <c r="G65" s="88"/>
       <c r="H65" s="125"/>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" ht="15.000000" customHeight="1">
       <c r="A66" s="87" t="s">
         <v>15</v>
       </c>
@@ -5033,7 +5036,7 @@
       </c>
       <c r="H66" s="125"/>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" ht="15.000000" customHeight="1">
       <c r="A67" s="87" t="s">
         <v>5</v>
       </c>
@@ -5047,7 +5050,7 @@
       <c r="G67" s="92"/>
       <c r="H67" s="125"/>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" ht="15.000000" customHeight="1">
       <c r="A68" s="87" t="s">
         <v>6</v>
       </c>
@@ -5061,7 +5064,7 @@
       <c r="G68" s="88"/>
       <c r="H68" s="125"/>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" ht="15.000000" customHeight="1">
       <c r="A69" s="87"/>
       <c r="B69" s="155"/>
       <c r="C69" s="88"/>
@@ -5071,7 +5074,7 @@
       <c r="G69" s="88"/>
       <c r="H69" s="195"/>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" ht="15.000000" customHeight="1">
       <c r="A70" s="87"/>
       <c r="B70" s="88" t="s">
         <v>19</v>
@@ -5085,7 +5088,7 @@
       <c r="G70" s="88"/>
       <c r="H70" s="195"/>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" ht="15.000000" customHeight="1">
       <c r="A71" s="87"/>
       <c r="B71" s="88" t="s">
         <v>14</v>
@@ -5167,7 +5170,7 @@
       <c r="G75" s="88"/>
       <c r="H75" s="125"/>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" ht="15.000000" customHeight="1">
       <c r="A76" s="87" t="s">
         <v>15</v>
       </c>
@@ -5189,7 +5192,7 @@
       </c>
       <c r="H76" s="125"/>
     </row>
-    <row r="77" spans="1:8" ht="25.500000">
+    <row r="77" spans="1:8" ht="15.000000" customHeight="1">
       <c r="A77" s="87" t="s">
         <v>5</v>
       </c>
@@ -5203,7 +5206,7 @@
       <c r="G77" s="92"/>
       <c r="H77" s="125"/>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" ht="15.000000" customHeight="1">
       <c r="A78" s="87" t="s">
         <v>6</v>
       </c>
@@ -5217,7 +5220,7 @@
       <c r="G78" s="88"/>
       <c r="H78" s="125"/>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" ht="15.000000" customHeight="1">
       <c r="A79" s="87"/>
       <c r="B79" s="155"/>
       <c r="C79" s="88"/>
@@ -5227,7 +5230,7 @@
       <c r="G79" s="88"/>
       <c r="H79" s="195"/>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" ht="15.000000" customHeight="1">
       <c r="A80" s="87"/>
       <c r="B80" s="88" t="s">
         <v>19</v>
@@ -5241,7 +5244,7 @@
       <c r="G80" s="88"/>
       <c r="H80" s="195"/>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" ht="15.000000" customHeight="1">
       <c r="A81" s="87"/>
       <c r="B81" s="88" t="s">
         <v>14</v>
@@ -5323,7 +5326,7 @@
       <c r="G85" s="88"/>
       <c r="H85" s="125"/>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" ht="15.000000" customHeight="1">
       <c r="A86" s="87" t="s">
         <v>15</v>
       </c>
@@ -5345,7 +5348,7 @@
       </c>
       <c r="H86" s="125"/>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" ht="15.000000" customHeight="1">
       <c r="A87" s="87" t="s">
         <v>5</v>
       </c>
@@ -5359,7 +5362,7 @@
       <c r="G87" s="92"/>
       <c r="H87" s="125"/>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" ht="15.000000" customHeight="1">
       <c r="A88" s="87" t="s">
         <v>6</v>
       </c>
@@ -5373,7 +5376,7 @@
       <c r="G88" s="88"/>
       <c r="H88" s="125"/>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" ht="15.000000" customHeight="1">
       <c r="A89" s="87"/>
       <c r="B89" s="173"/>
       <c r="C89" s="172"/>
@@ -5383,7 +5386,7 @@
       <c r="G89" s="88"/>
       <c r="H89" s="195"/>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" ht="15.000000" customHeight="1">
       <c r="A90" s="87"/>
       <c r="B90" s="172" t="s">
         <v>19</v>
@@ -5397,7 +5400,7 @@
       <c r="G90" s="88"/>
       <c r="H90" s="195"/>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" ht="15.000000" customHeight="1">
       <c r="A91" s="87"/>
       <c r="B91" s="172" t="s">
         <v>14</v>
@@ -5479,7 +5482,7 @@
       <c r="G95" s="88"/>
       <c r="H95" s="125"/>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" ht="15.000000" customHeight="1">
       <c r="A96" s="87" t="s">
         <v>15</v>
       </c>
@@ -5501,7 +5504,7 @@
       </c>
       <c r="H96" s="125"/>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" ht="15.000000" customHeight="1">
       <c r="A97" s="87" t="s">
         <v>5</v>
       </c>
@@ -5515,7 +5518,7 @@
       <c r="G97" s="92"/>
       <c r="H97" s="125"/>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" ht="15.000000" customHeight="1">
       <c r="A98" s="87" t="s">
         <v>6</v>
       </c>
@@ -5529,7 +5532,7 @@
       <c r="G98" s="88"/>
       <c r="H98" s="125"/>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" ht="15.000000" customHeight="1">
       <c r="A99" s="87"/>
       <c r="B99" s="173"/>
       <c r="C99" s="172"/>
@@ -5539,7 +5542,7 @@
       <c r="G99" s="88"/>
       <c r="H99" s="195"/>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" ht="15.000000" customHeight="1">
       <c r="A100" s="87"/>
       <c r="B100" s="172" t="s">
         <v>19</v>
@@ -5553,7 +5556,7 @@
       <c r="G100" s="88"/>
       <c r="H100" s="195"/>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" ht="15.000000" customHeight="1">
       <c r="A101" s="87"/>
       <c r="B101" s="172" t="s">
         <v>14</v>
@@ -5635,7 +5638,7 @@
       <c r="G105" s="172"/>
       <c r="H105" s="201"/>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" ht="15.000000" customHeight="1">
       <c r="A106" s="87" t="s">
         <v>15</v>
       </c>
@@ -5657,7 +5660,7 @@
       </c>
       <c r="H106" s="201"/>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" ht="15.000000" customHeight="1">
       <c r="A107" s="87" t="s">
         <v>5</v>
       </c>
@@ -5671,7 +5674,7 @@
       <c r="G107" s="178"/>
       <c r="H107" s="201"/>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" ht="15.000000" customHeight="1">
       <c r="A108" s="87" t="s">
         <v>6</v>
       </c>
@@ -5685,7 +5688,7 @@
       <c r="G108" s="172"/>
       <c r="H108" s="201"/>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" ht="15.000000" customHeight="1">
       <c r="A109" s="87"/>
       <c r="B109" s="173"/>
       <c r="C109" s="172"/>
@@ -5695,7 +5698,7 @@
       <c r="G109" s="172"/>
       <c r="H109" s="206"/>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" ht="15.000000" customHeight="1">
       <c r="A110" s="87"/>
       <c r="B110" s="172" t="s">
         <v>19</v>
@@ -5709,7 +5712,7 @@
       <c r="G110" s="172"/>
       <c r="H110" s="206"/>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" ht="15.000000" customHeight="1">
       <c r="A111" s="87"/>
       <c r="B111" s="172" t="s">
         <v>14</v>
@@ -5791,7 +5794,7 @@
       <c r="G115" s="172"/>
       <c r="H115" s="201"/>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" ht="15.000000" customHeight="1">
       <c r="A116" s="87" t="s">
         <v>15</v>
       </c>
@@ -5813,7 +5816,7 @@
       </c>
       <c r="H116" s="201"/>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" ht="15.000000" customHeight="1">
       <c r="A117" s="87" t="s">
         <v>5</v>
       </c>
@@ -5827,7 +5830,7 @@
       <c r="G117" s="178"/>
       <c r="H117" s="201"/>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" ht="15.000000" customHeight="1">
       <c r="A118" s="87" t="s">
         <v>6</v>
       </c>
@@ -5841,7 +5844,7 @@
       <c r="G118" s="172"/>
       <c r="H118" s="201"/>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" ht="15.000000" customHeight="1">
       <c r="A119" s="87"/>
       <c r="B119" s="173"/>
       <c r="C119" s="172"/>
@@ -5851,7 +5854,7 @@
       <c r="G119" s="172"/>
       <c r="H119" s="206"/>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" ht="15.000000" customHeight="1">
       <c r="A120" s="87"/>
       <c r="B120" s="172" t="s">
         <v>19</v>
@@ -5865,7 +5868,7 @@
       <c r="G120" s="172"/>
       <c r="H120" s="206"/>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" ht="15.000000" customHeight="1">
       <c r="A121" s="87"/>
       <c r="B121" s="172" t="s">
         <v>14</v>

--- a/Project_Design/요구 사항 분석서/요구 사항 분석서.xlsx
+++ b/Project_Design/요구 사항 분석서/요구 사항 분석서.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild="9.104.121.46349"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="420" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="400" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="사용자 요구사항 분석서 변경 전" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>요구사항 명</t>
   </si>
@@ -325,6 +325,9 @@
   </si>
   <si>
     <t>해결 방안</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
@@ -332,7 +335,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
@@ -471,18 +474,13 @@
       <color rgb="FF9C6500"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color theme="0"/>
-    </font>
-    <font>
       <i/>
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
       <color rgb="FF7F7F7F"/>
     </font>
   </fonts>
-  <fills count="50">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -584,12 +582,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799980"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
@@ -638,24 +630,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399980"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
@@ -663,12 +637,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799980"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -716,12 +684,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599990"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
@@ -764,12 +726,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599990"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
@@ -781,7 +737,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="54">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -1309,16 +1265,6 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1327,7 +1273,6 @@
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1336,7 +1281,6 @@
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1351,7 +1295,6 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1366,7 +1309,6 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -1381,7 +1323,6 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1390,7 +1331,6 @@
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1401,7 +1341,6 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -1429,7 +1368,7 @@
     <xf numFmtId="5" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="45" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="45" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
@@ -1438,122 +1377,122 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="46" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="49" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="48" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="50" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="49" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="49" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="48" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="51" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="50" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="52" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="51" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="53" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="52" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="42" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="45" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="46" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="49" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1638,7 +1577,7 @@
     <xf numFmtId="49" fontId="5" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1662,7 +1601,7 @@
     <xf numFmtId="49" fontId="5" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="6" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1677,7 +1616,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="26" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="26" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="6" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1842,17 +1781,20 @@
     <xf numFmtId="49" fontId="5" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="18" borderId="44" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="17" borderId="44" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="18" borderId="44" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="17" borderId="44" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2193,8 +2135,7 @@
     <col min="14" max="14" style="1" width="16.62999916" customWidth="1" outlineLevel="0"/>
     <col min="15" max="15" style="1" width="32.25499916" customWidth="1" outlineLevel="0"/>
     <col min="16" max="16" style="1" width="36.50500107" customWidth="1" outlineLevel="0"/>
-    <col min="17" max="17" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
-    <col min="18" max="16384" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="17" max="16384" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="49.200000" customHeight="1">
@@ -5026,39 +4967,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK52"/>
+  <dimension ref="A1:AK51"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AF21" sqref="AF21"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
     <col min="1" max="2" width="14.25500011" customWidth="1" outlineLevel="0"/>
-    <col min="3" max="3" width="18.25499916" customWidth="1" outlineLevel="0"/>
-    <col min="4" max="4" width="18.50499916" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="4" width="35.63000107" customWidth="1" outlineLevel="0"/>
     <col min="5" max="6" width="14.25500011" customWidth="1" outlineLevel="0"/>
-    <col min="7" max="7" width="16.62999916" customWidth="1" outlineLevel="0"/>
-    <col min="8" max="8" width="18.50499916" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="8" width="35.63000107" customWidth="1" outlineLevel="0"/>
     <col min="9" max="9" style="28" width="4.50500011" customWidth="1" outlineLevel="0"/>
     <col min="10" max="11" width="14.25500011" customWidth="1" outlineLevel="0"/>
-    <col min="12" max="12" width="20.00499916" customWidth="1" outlineLevel="0"/>
-    <col min="13" max="13" width="18.50499916" customWidth="1" outlineLevel="0"/>
+    <col min="12" max="13" width="35.63000107" customWidth="1" outlineLevel="0"/>
     <col min="14" max="14" style="28" width="4.50500011" customWidth="1" outlineLevel="0"/>
     <col min="15" max="16" width="14.25500011" customWidth="1" outlineLevel="0"/>
-    <col min="17" max="17" width="16.62999916" customWidth="1" outlineLevel="0"/>
-    <col min="18" max="18" width="18.50499916" customWidth="1" outlineLevel="0"/>
+    <col min="17" max="18" width="35.63000107" customWidth="1" outlineLevel="0"/>
     <col min="19" max="20" width="14.25500011" customWidth="1" outlineLevel="0"/>
-    <col min="21" max="21" width="16.62999916" customWidth="1" outlineLevel="0"/>
+    <col min="21" max="21" width="35.63000107" customWidth="1" outlineLevel="0"/>
     <col min="22" max="22" width="18.50499916" customWidth="1" outlineLevel="0"/>
     <col min="23" max="23" style="28" width="4.50500011" customWidth="1" outlineLevel="0"/>
     <col min="24" max="25" width="14.25500011" customWidth="1" outlineLevel="0"/>
-    <col min="26" max="26" width="16.62999916" customWidth="1" outlineLevel="0"/>
-    <col min="27" max="27" width="18.50499916" customWidth="1" outlineLevel="0"/>
+    <col min="26" max="27" width="35.63000107" customWidth="1" outlineLevel="0"/>
     <col min="28" max="28" style="28" width="4.50500011" customWidth="1" outlineLevel="0"/>
     <col min="29" max="30" width="14.25500011" customWidth="1" outlineLevel="0"/>
-    <col min="31" max="31" width="16.62999916" customWidth="1" outlineLevel="0"/>
-    <col min="32" max="32" width="18.50499916" customWidth="1" outlineLevel="0"/>
+    <col min="31" max="32" width="35.63000107" customWidth="1" outlineLevel="0"/>
     <col min="33" max="33" style="28" width="4.50500011" customWidth="1" outlineLevel="0"/>
     <col min="34" max="35" width="13.25500011" customWidth="1" outlineLevel="0"/>
     <col min="36" max="36" width="16.62999916" customWidth="1" outlineLevel="0"/>
@@ -5639,7 +5574,9 @@
       <c r="F10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="5"/>
+      <c r="G10" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="H10" s="33"/>
       <c r="I10" s="31"/>
       <c r="J10" s="24"/>
@@ -5688,13 +5625,17 @@
       <c r="B11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="8"/>
+      <c r="C11" s="8">
+        <v>7</v>
+      </c>
       <c r="D11" s="7"/>
       <c r="E11" s="24"/>
       <c r="F11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="5"/>
+      <c r="G11" s="100">
+        <v>5</v>
+      </c>
       <c r="H11" s="33"/>
       <c r="I11" s="31"/>
       <c r="J11" s="24"/>
@@ -6254,7 +6195,9 @@
       <c r="B21" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="8"/>
+      <c r="C21" s="8">
+        <v>5</v>
+      </c>
       <c r="D21" s="5"/>
       <c r="E21" s="24"/>
       <c r="F21" s="5" t="s">

--- a/Project_Design/요구 사항 분석서/요구 사항 분석서.xlsx
+++ b/Project_Design/요구 사항 분석서/요구 사항 분석서.xlsx
@@ -15,8 +15,15 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors/>
+  <commentList/>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
   <si>
     <t>요구사항 명</t>
   </si>
@@ -328,6 +335,105 @@
   </si>
   <si>
     <t>5</t>
+  </si>
+  <si>
+    <t>-웹과 같은 저장소를 사용하여, 로그인이 가능하도록 한다.</t>
+  </si>
+  <si>
+    <t>-회원으로 등록된 사용자만 이용 가능하게 함</t>
+  </si>
+  <si>
+    <t>-사용자가 원하는 모습과 색을 입력받아 생성</t>
+  </si>
+  <si>
+    <t>중간</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>-사용자에게 키 입력을 받아 속도를 조절</t>
+  </si>
+  <si>
+    <t>-사용자의 정보가 담긴 저장소를 만드들어 조회</t>
+  </si>
+  <si>
+    <t>-사용자의 정보가 담긴 저장소를 만들어 조회</t>
+  </si>
+  <si>
+    <t>-사용자가 예약한 정보를 저장하였다가 표출</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>-매칭이 완료된 경우에게 사용자에게 발송하도록 함</t>
+  </si>
+  <si>
+    <t>-멘토 희망 사용자는 멘티를 선택,</t>
+  </si>
+  <si>
+    <t>-멘토 희망 사용자는 멘티를 선택, 멘티 희망 사용자는 멘토를 선택</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>-해당 키워드가 포함된 모든 글을 탐색</t>
+  </si>
+  <si>
+    <t>-전공,진로,연애,학교생활,기타로 구성</t>
+  </si>
+  <si>
+    <t>-후기 데이터를 종합하여 높은 순으로 출력</t>
+  </si>
+  <si>
+    <t>낮음</t>
+  </si>
+  <si>
+    <t>-그림판과 같은 기능을 제공</t>
+  </si>
+  <si>
+    <t>-칠판 / 메모장에서 사용하는 펜으로</t>
+  </si>
+  <si>
+    <t>-칠판 / 메모장에서 사용하는 펜을 사용하도록 함</t>
+  </si>
+  <si>
+    <t>-굵기,색상 등을 변경할 수 있도록 함</t>
+  </si>
+  <si>
+    <t>-실시간 동기화 서버를 이용함</t>
+  </si>
+  <si>
+    <t>-해당 컴퓨터의 시간 정보를 받아옴</t>
+  </si>
+  <si>
+    <t>-학교 홈페이지를 통해 정보 수집</t>
+  </si>
+  <si>
+    <t>-해당  건물의 좌표를 알아내어 제공</t>
+  </si>
+  <si>
+    <t>-로비와 방을 구성하여 사용자를 나눔</t>
+  </si>
+  <si>
+    <t>-해당 영역을 서버에서 삭제</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>-사용자에게  궁금한 점을 입력받아, 저장소에 저장</t>
+  </si>
+  <si>
+    <t>-사용자가 질문한 내용을 바탕으로 답변을 입력</t>
   </si>
 </sst>
 </file>
@@ -4969,8 +5075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AK51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="E1" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -4986,8 +5092,7 @@
     <col min="15" max="16" width="14.25500011" customWidth="1" outlineLevel="0"/>
     <col min="17" max="18" width="35.63000107" customWidth="1" outlineLevel="0"/>
     <col min="19" max="20" width="14.25500011" customWidth="1" outlineLevel="0"/>
-    <col min="21" max="21" width="35.63000107" customWidth="1" outlineLevel="0"/>
-    <col min="22" max="22" width="18.50499916" customWidth="1" outlineLevel="0"/>
+    <col min="21" max="22" width="35.63000107" customWidth="1" outlineLevel="0"/>
     <col min="23" max="23" style="28" width="4.50500011" customWidth="1" outlineLevel="0"/>
     <col min="24" max="25" width="14.25500011" customWidth="1" outlineLevel="0"/>
     <col min="26" max="27" width="35.63000107" customWidth="1" outlineLevel="0"/>
@@ -5085,12 +5190,6 @@
       <c r="AE2" s="76"/>
       <c r="AF2" s="77"/>
       <c r="AG2" s="29"/>
-      <c r="AH2" s="75" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI2" s="76"/>
-      <c r="AJ2" s="76"/>
-      <c r="AK2" s="77"/>
     </row>
     <row r="3" spans="1:37" ht="24.000000" customHeight="1">
       <c r="A3" s="24" t="s">
@@ -5168,16 +5267,6 @@
         <v>101</v>
       </c>
       <c r="AG3" s="71"/>
-      <c r="AH3" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="AJ3" s="5"/>
-      <c r="AK3" s="98" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="4" spans="1:37" ht="24.000000" customHeight="1">
       <c r="A4" s="24" t="s">
@@ -5241,14 +5330,6 @@
       <c r="AE4" s="54"/>
       <c r="AF4" s="99"/>
       <c r="AG4" s="71"/>
-      <c r="AH4" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI4" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ4" s="54"/>
-      <c r="AK4" s="99"/>
     </row>
     <row r="5" spans="1:37" ht="24.000000" customHeight="1">
       <c r="A5" s="24" t="s">
@@ -5312,14 +5393,6 @@
       <c r="AE5" s="5"/>
       <c r="AF5" s="98"/>
       <c r="AG5" s="71"/>
-      <c r="AH5" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ5" s="5"/>
-      <c r="AK5" s="98"/>
     </row>
     <row r="6" spans="1:37" ht="24.000000" customHeight="1">
       <c r="A6" s="24" t="s">
@@ -5343,7 +5416,9 @@
       <c r="G6" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="74"/>
+      <c r="H6" s="74" t="s">
+        <v>103</v>
+      </c>
       <c r="I6" s="27"/>
       <c r="J6" s="24" t="s">
         <v>7</v>
@@ -5354,7 +5429,9 @@
       <c r="L6" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="M6" s="74"/>
+      <c r="M6" s="74" t="s">
+        <v>117</v>
+      </c>
       <c r="N6" s="27"/>
       <c r="O6" s="24" t="s">
         <v>7</v>
@@ -5365,7 +5442,9 @@
       <c r="Q6" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="R6" s="49"/>
+      <c r="R6" s="49" t="s">
+        <v>123</v>
+      </c>
       <c r="S6" s="24" t="s">
         <v>7</v>
       </c>
@@ -5375,7 +5454,9 @@
       <c r="U6" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="V6" s="74"/>
+      <c r="V6" s="74" t="s">
+        <v>129</v>
+      </c>
       <c r="W6" s="27"/>
       <c r="X6" s="24" t="s">
         <v>7</v>
@@ -5386,7 +5467,9 @@
       <c r="Z6" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="AA6" s="74"/>
+      <c r="AA6" s="74" t="s">
+        <v>134</v>
+      </c>
       <c r="AB6" s="27"/>
       <c r="AC6" s="24" t="s">
         <v>7</v>
@@ -5394,21 +5477,13 @@
       <c r="AD6" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="AE6" s="5" t="s">
+      <c r="AE6" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="AF6" s="81"/>
+      <c r="AF6" s="81" t="s">
+        <v>135</v>
+      </c>
       <c r="AG6" s="71"/>
-      <c r="AH6" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI6" s="72" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ6" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="AK6" s="81"/>
     </row>
     <row r="7" spans="1:37" ht="24.000000" customHeight="1">
       <c r="A7" s="24" t="s">
@@ -5455,15 +5530,9 @@
         <v>2</v>
       </c>
       <c r="AD7" s="72"/>
-      <c r="AE7" s="5"/>
+      <c r="AE7" s="48"/>
       <c r="AF7" s="82"/>
       <c r="AG7" s="71"/>
-      <c r="AH7" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI7" s="72"/>
-      <c r="AJ7" s="48"/>
-      <c r="AK7" s="82"/>
     </row>
     <row r="8" spans="1:37" ht="24.000000" customHeight="1">
       <c r="A8" s="24" t="s">
@@ -5515,12 +5584,6 @@
       <c r="AE8" s="5"/>
       <c r="AF8" s="83"/>
       <c r="AG8" s="71"/>
-      <c r="AH8" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI8" s="72"/>
-      <c r="AJ8" s="5"/>
-      <c r="AK8" s="83"/>
     </row>
     <row r="9" spans="1:37" ht="24.000000" customHeight="1">
       <c r="A9" s="24"/>
@@ -5556,10 +5619,6 @@
       <c r="AE9" s="5"/>
       <c r="AF9" s="35"/>
       <c r="AG9" s="71"/>
-      <c r="AH9" s="24"/>
-      <c r="AI9" s="72"/>
-      <c r="AJ9" s="5"/>
-      <c r="AK9" s="35"/>
     </row>
     <row r="10" spans="1:37" ht="24.000000" customHeight="1">
       <c r="A10" s="24"/>
@@ -5583,42 +5642,46 @@
       <c r="K10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L10" s="7"/>
+      <c r="L10" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="M10" s="33"/>
       <c r="N10" s="31"/>
       <c r="O10" s="24"/>
       <c r="P10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="Q10" s="5"/>
+      <c r="Q10" s="5" t="s">
+        <v>106</v>
+      </c>
       <c r="R10" s="13"/>
       <c r="S10" s="24"/>
       <c r="T10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="U10" s="7"/>
+      <c r="U10" s="5" t="s">
+        <v>106</v>
+      </c>
       <c r="V10" s="33"/>
       <c r="W10" s="31"/>
       <c r="X10" s="24"/>
       <c r="Y10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="Z10" s="7"/>
+      <c r="Z10" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="AA10" s="33"/>
       <c r="AB10" s="31"/>
       <c r="AC10" s="24"/>
       <c r="AD10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AE10" s="5"/>
+      <c r="AE10" s="5" t="s">
+        <v>122</v>
+      </c>
       <c r="AF10" s="35"/>
       <c r="AG10" s="71"/>
-      <c r="AH10" s="24"/>
-      <c r="AI10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="AJ10" s="5"/>
-      <c r="AK10" s="35"/>
     </row>
     <row r="11" spans="1:37" ht="24.000000" customHeight="1">
       <c r="A11" s="24"/>
@@ -5642,42 +5705,46 @@
       <c r="K11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="L11" s="7"/>
+      <c r="L11" s="7" t="s">
+        <v>118</v>
+      </c>
       <c r="M11" s="33"/>
       <c r="N11" s="31"/>
       <c r="O11" s="24"/>
       <c r="P11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="Q11" s="5"/>
+      <c r="Q11" s="5" t="s">
+        <v>102</v>
+      </c>
       <c r="R11" s="13"/>
       <c r="S11" s="24"/>
       <c r="T11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="U11" s="7"/>
+      <c r="U11" s="7" t="s">
+        <v>112</v>
+      </c>
       <c r="V11" s="33"/>
       <c r="W11" s="31"/>
       <c r="X11" s="24"/>
       <c r="Y11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="Z11" s="7"/>
+      <c r="Z11" s="7" t="s">
+        <v>113</v>
+      </c>
       <c r="AA11" s="33"/>
       <c r="AB11" s="31"/>
       <c r="AC11" s="24"/>
       <c r="AD11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="AE11" s="5"/>
+      <c r="AE11" s="5" t="s">
+        <v>113</v>
+      </c>
       <c r="AF11" s="35"/>
       <c r="AG11" s="71"/>
-      <c r="AH11" s="24"/>
-      <c r="AI11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="AJ11" s="5"/>
-      <c r="AK11" s="35"/>
     </row>
     <row r="12" spans="1:37" ht="24.000000" customHeight="1">
       <c r="A12" s="32"/>
@@ -5713,10 +5780,6 @@
       <c r="AE12" s="32"/>
       <c r="AF12" s="34"/>
       <c r="AG12" s="36"/>
-      <c r="AH12" s="32"/>
-      <c r="AI12" s="32"/>
-      <c r="AJ12" s="32"/>
-      <c r="AK12" s="34"/>
     </row>
     <row r="13" spans="1:37" ht="24.000000" customHeight="1">
       <c r="A13" s="24" t="s">
@@ -5782,16 +5845,6 @@
       <c r="AE13" s="32"/>
       <c r="AF13" s="34"/>
       <c r="AG13" s="36"/>
-      <c r="AH13" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="94" t="s">
-        <v>100</v>
-      </c>
-      <c r="AJ13" s="95"/>
-      <c r="AK13" s="98" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="14" spans="1:37" ht="24.000000" customHeight="1">
       <c r="A14" s="24" t="s">
@@ -5847,14 +5900,6 @@
       <c r="AE14" s="32"/>
       <c r="AF14" s="34"/>
       <c r="AG14" s="36"/>
-      <c r="AH14" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI14" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ14" s="26"/>
-      <c r="AK14" s="99"/>
     </row>
     <row r="15" spans="1:37" ht="24.000000" customHeight="1">
       <c r="A15" s="24" t="s">
@@ -5910,14 +5955,6 @@
       <c r="AE15" s="32"/>
       <c r="AF15" s="34"/>
       <c r="AG15" s="36"/>
-      <c r="AH15" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI15" s="87" t="s">
-        <v>32</v>
-      </c>
-      <c r="AJ15" s="88"/>
-      <c r="AK15" s="98"/>
     </row>
     <row r="16" spans="1:37" ht="24.000000" customHeight="1">
       <c r="A16" s="24" t="s">
@@ -5929,7 +5966,9 @@
       <c r="C16" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="47"/>
+      <c r="D16" s="47" t="s">
+        <v>104</v>
+      </c>
       <c r="E16" s="24" t="s">
         <v>7</v>
       </c>
@@ -5939,7 +5978,9 @@
       <c r="G16" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="74"/>
+      <c r="H16" s="74" t="s">
+        <v>105</v>
+      </c>
       <c r="I16" s="27"/>
       <c r="J16" s="24" t="s">
         <v>7</v>
@@ -5950,7 +5991,9 @@
       <c r="L16" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="M16" s="74"/>
+      <c r="M16" s="74" t="s">
+        <v>119</v>
+      </c>
       <c r="N16" s="27"/>
       <c r="O16" s="24" t="s">
         <v>7</v>
@@ -5959,9 +6002,11 @@
         <v>4</v>
       </c>
       <c r="Q16" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="R16" s="49"/>
+        <v>125</v>
+      </c>
+      <c r="R16" s="49" t="s">
+        <v>126</v>
+      </c>
       <c r="S16" s="24" t="s">
         <v>7</v>
       </c>
@@ -5971,7 +6016,9 @@
       <c r="U16" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="V16" s="74"/>
+      <c r="V16" s="74" t="s">
+        <v>130</v>
+      </c>
       <c r="W16" s="27"/>
       <c r="X16" s="32"/>
       <c r="Y16" s="32"/>
@@ -5983,16 +6030,6 @@
       <c r="AE16" s="32"/>
       <c r="AF16" s="34"/>
       <c r="AG16" s="36"/>
-      <c r="AH16" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI16" s="72" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ16" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK16" s="93"/>
     </row>
     <row r="17" spans="1:37" ht="24.000000" customHeight="1">
       <c r="A17" s="24" t="s">
@@ -6038,12 +6075,6 @@
       <c r="AE17" s="32"/>
       <c r="AF17" s="34"/>
       <c r="AG17" s="36"/>
-      <c r="AH17" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI17" s="72"/>
-      <c r="AJ17" s="92"/>
-      <c r="AK17" s="82"/>
     </row>
     <row r="18" spans="1:37" ht="24.000000" customHeight="1">
       <c r="A18" s="24" t="s">
@@ -6089,14 +6120,6 @@
       <c r="AE18" s="32"/>
       <c r="AF18" s="34"/>
       <c r="AG18" s="36"/>
-      <c r="AH18" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI18" s="72"/>
-      <c r="AJ18" s="89" t="s">
-        <v>63</v>
-      </c>
-      <c r="AK18" s="82"/>
     </row>
     <row r="19" spans="1:37" ht="24.000000" customHeight="1">
       <c r="A19" s="24"/>
@@ -6132,10 +6155,6 @@
       <c r="AE19" s="32"/>
       <c r="AF19" s="34"/>
       <c r="AG19" s="36"/>
-      <c r="AH19" s="24"/>
-      <c r="AI19" s="72"/>
-      <c r="AJ19" s="90"/>
-      <c r="AK19" s="35"/>
     </row>
     <row r="20" spans="1:37" ht="24.000000" customHeight="1">
       <c r="A20" s="24"/>
@@ -6150,27 +6169,35 @@
       <c r="F20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="5" t="s">
+        <v>106</v>
+      </c>
       <c r="H20" s="33"/>
       <c r="I20" s="31"/>
       <c r="J20" s="24"/>
       <c r="K20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L20" s="5"/>
+      <c r="L20" s="5" t="s">
+        <v>106</v>
+      </c>
       <c r="M20" s="33"/>
       <c r="N20" s="31"/>
       <c r="O20" s="24"/>
       <c r="P20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="Q20" s="5"/>
+      <c r="Q20" s="5" t="s">
+        <v>106</v>
+      </c>
       <c r="R20" s="13"/>
       <c r="S20" s="24"/>
       <c r="T20" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="U20" s="7"/>
+      <c r="U20" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="V20" s="33"/>
       <c r="W20" s="31"/>
       <c r="X20" s="32"/>
@@ -6183,12 +6210,6 @@
       <c r="AE20" s="32"/>
       <c r="AF20" s="34"/>
       <c r="AG20" s="36"/>
-      <c r="AH20" s="24"/>
-      <c r="AI20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="AJ20" s="5"/>
-      <c r="AK20" s="33"/>
     </row>
     <row r="21" spans="1:37" ht="24.000000" customHeight="1">
       <c r="A21" s="24"/>
@@ -6203,27 +6224,35 @@
       <c r="F21" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G21" s="5"/>
+      <c r="G21" s="100">
+        <v>7</v>
+      </c>
       <c r="H21" s="33"/>
       <c r="I21" s="31"/>
       <c r="J21" s="24"/>
       <c r="K21" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L21" s="5"/>
+      <c r="L21" s="5" t="s">
+        <v>118</v>
+      </c>
       <c r="M21" s="33"/>
       <c r="N21" s="31"/>
       <c r="O21" s="24"/>
       <c r="P21" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="Q21" s="5"/>
+      <c r="Q21" s="5" t="s">
+        <v>102</v>
+      </c>
       <c r="R21" s="13"/>
       <c r="S21" s="24"/>
       <c r="T21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="U21" s="7"/>
+      <c r="U21" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="V21" s="33"/>
       <c r="W21" s="31"/>
       <c r="X21" s="32"/>
@@ -6236,12 +6265,6 @@
       <c r="AE21" s="32"/>
       <c r="AF21" s="34"/>
       <c r="AG21" s="36"/>
-      <c r="AH21" s="24"/>
-      <c r="AI21" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="AJ21" s="5"/>
-      <c r="AK21" s="33"/>
     </row>
     <row r="22" spans="1:37" ht="24.000000" customHeight="1">
       <c r="A22" s="32"/>
@@ -6277,10 +6300,6 @@
       <c r="AE22" s="32"/>
       <c r="AF22" s="34"/>
       <c r="AG22" s="36"/>
-      <c r="AH22" s="32"/>
-      <c r="AI22" s="32"/>
-      <c r="AJ22" s="32"/>
-      <c r="AK22" s="34"/>
     </row>
     <row r="23" spans="1:37" ht="24.000000" customHeight="1">
       <c r="A23" s="24" t="s">
@@ -6346,10 +6365,6 @@
       <c r="AE23" s="32"/>
       <c r="AF23" s="34"/>
       <c r="AG23" s="36"/>
-      <c r="AH23" s="32"/>
-      <c r="AI23" s="32"/>
-      <c r="AJ23" s="32"/>
-      <c r="AK23" s="34"/>
     </row>
     <row r="24" spans="1:37" ht="24.000000" customHeight="1">
       <c r="A24" s="24" t="s">
@@ -6405,10 +6420,6 @@
       <c r="AE24" s="32"/>
       <c r="AF24" s="34"/>
       <c r="AG24" s="36"/>
-      <c r="AH24" s="32"/>
-      <c r="AI24" s="32"/>
-      <c r="AJ24" s="32"/>
-      <c r="AK24" s="34"/>
     </row>
     <row r="25" spans="1:37" ht="24.000000" customHeight="1">
       <c r="A25" s="24" t="s">
@@ -6464,10 +6475,6 @@
       <c r="AE25" s="32"/>
       <c r="AF25" s="34"/>
       <c r="AG25" s="36"/>
-      <c r="AH25" s="32"/>
-      <c r="AI25" s="32"/>
-      <c r="AJ25" s="32"/>
-      <c r="AK25" s="34"/>
     </row>
     <row r="26" spans="1:37" ht="24.000000" customHeight="1">
       <c r="A26" s="24" t="s">
@@ -6479,7 +6486,9 @@
       <c r="C26" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="49"/>
+      <c r="D26" s="49" t="s">
+        <v>110</v>
+      </c>
       <c r="E26" s="24" t="s">
         <v>7</v>
       </c>
@@ -6489,7 +6498,9 @@
       <c r="G26" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H26" s="74"/>
+      <c r="H26" s="74" t="s">
+        <v>108</v>
+      </c>
       <c r="I26" s="27"/>
       <c r="J26" s="24" t="s">
         <v>7</v>
@@ -6500,7 +6511,9 @@
       <c r="L26" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="M26" s="74"/>
+      <c r="M26" s="74" t="s">
+        <v>120</v>
+      </c>
       <c r="N26" s="27"/>
       <c r="O26" s="24" t="s">
         <v>7</v>
@@ -6511,7 +6524,9 @@
       <c r="Q26" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="R26" s="49"/>
+      <c r="R26" s="49" t="s">
+        <v>127</v>
+      </c>
       <c r="S26" s="24" t="s">
         <v>7</v>
       </c>
@@ -6521,7 +6536,9 @@
       <c r="U26" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="V26" s="74"/>
+      <c r="V26" s="74" t="s">
+        <v>131</v>
+      </c>
       <c r="W26" s="27"/>
       <c r="X26" s="32"/>
       <c r="Y26" s="32"/>
@@ -6533,10 +6550,6 @@
       <c r="AE26" s="32"/>
       <c r="AF26" s="34"/>
       <c r="AG26" s="36"/>
-      <c r="AH26" s="32"/>
-      <c r="AI26" s="32"/>
-      <c r="AJ26" s="32"/>
-      <c r="AK26" s="34"/>
     </row>
     <row r="27" spans="1:37" ht="24.000000" customHeight="1">
       <c r="A27" s="24" t="s">
@@ -6584,10 +6597,6 @@
       <c r="AE27" s="32"/>
       <c r="AF27" s="34"/>
       <c r="AG27" s="36"/>
-      <c r="AH27" s="32"/>
-      <c r="AI27" s="32"/>
-      <c r="AJ27" s="32"/>
-      <c r="AK27" s="34"/>
     </row>
     <row r="28" spans="1:37" ht="24.000000" customHeight="1">
       <c r="A28" s="24" t="s">
@@ -6633,10 +6642,10 @@
       <c r="AE28" s="32"/>
       <c r="AF28" s="34"/>
       <c r="AG28" s="36"/>
-      <c r="AH28" s="32"/>
-      <c r="AI28" s="32"/>
-      <c r="AJ28" s="32"/>
-      <c r="AK28" s="34"/>
+      <c r="AH28" s="0"/>
+      <c r="AI28" s="0"/>
+      <c r="AJ28" s="0"/>
+      <c r="AK28" s="0"/>
     </row>
     <row r="29" spans="1:37" ht="24.000000" customHeight="1">
       <c r="A29" s="24"/>
@@ -6672,43 +6681,53 @@
       <c r="AE29" s="32"/>
       <c r="AF29" s="34"/>
       <c r="AG29" s="36"/>
-      <c r="AH29" s="32"/>
-      <c r="AI29" s="32"/>
-      <c r="AJ29" s="32"/>
-      <c r="AK29" s="34"/>
+      <c r="AH29" s="0"/>
+      <c r="AI29" s="0"/>
+      <c r="AJ29" s="0"/>
+      <c r="AK29" s="0"/>
     </row>
     <row r="30" spans="1:37" ht="24.000000" customHeight="1">
       <c r="A30" s="24"/>
       <c r="B30" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="7"/>
+      <c r="C30" s="7" t="s">
+        <v>106</v>
+      </c>
       <c r="D30" s="13"/>
       <c r="E30" s="24"/>
       <c r="F30" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G30" s="5"/>
+      <c r="G30" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="H30" s="33"/>
       <c r="I30" s="31"/>
       <c r="J30" s="24"/>
       <c r="K30" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L30" s="5"/>
+      <c r="L30" s="5" t="s">
+        <v>106</v>
+      </c>
       <c r="M30" s="33"/>
       <c r="N30" s="31"/>
       <c r="O30" s="24"/>
       <c r="P30" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="Q30" s="5"/>
+      <c r="Q30" s="5" t="s">
+        <v>106</v>
+      </c>
       <c r="R30" s="13"/>
       <c r="S30" s="24"/>
       <c r="T30" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="U30" s="5"/>
+      <c r="U30" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="V30" s="33"/>
       <c r="W30" s="31"/>
       <c r="X30" s="32"/>
@@ -6721,43 +6740,53 @@
       <c r="AE30" s="32"/>
       <c r="AF30" s="34"/>
       <c r="AG30" s="36"/>
-      <c r="AH30" s="32"/>
-      <c r="AI30" s="32"/>
-      <c r="AJ30" s="32"/>
-      <c r="AK30" s="34"/>
+      <c r="AH30" s="0"/>
+      <c r="AI30" s="0"/>
+      <c r="AJ30" s="0"/>
+      <c r="AK30" s="0"/>
     </row>
     <row r="31" spans="1:37" ht="24.000000" customHeight="1">
       <c r="A31" s="24"/>
       <c r="B31" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="7"/>
+      <c r="C31" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="D31" s="13"/>
       <c r="E31" s="24"/>
       <c r="F31" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G31" s="5"/>
+      <c r="G31" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="H31" s="33"/>
       <c r="I31" s="31"/>
       <c r="J31" s="24"/>
       <c r="K31" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L31" s="5"/>
+      <c r="L31" s="5" t="s">
+        <v>107</v>
+      </c>
       <c r="M31" s="33"/>
       <c r="N31" s="31"/>
       <c r="O31" s="24"/>
       <c r="P31" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="Q31" s="5"/>
+      <c r="Q31" s="5" t="s">
+        <v>114</v>
+      </c>
       <c r="R31" s="13"/>
       <c r="S31" s="24"/>
       <c r="T31" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="U31" s="5"/>
+      <c r="U31" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="V31" s="33"/>
       <c r="W31" s="31"/>
       <c r="X31" s="32"/>
@@ -6770,10 +6799,10 @@
       <c r="AE31" s="32"/>
       <c r="AF31" s="34"/>
       <c r="AG31" s="36"/>
-      <c r="AH31" s="32"/>
-      <c r="AI31" s="32"/>
-      <c r="AJ31" s="32"/>
-      <c r="AK31" s="34"/>
+      <c r="AH31" s="0"/>
+      <c r="AI31" s="0"/>
+      <c r="AJ31" s="0"/>
+      <c r="AK31" s="0"/>
     </row>
     <row r="32" spans="1:37" ht="24.000000" customHeight="1">
       <c r="A32" s="32"/>
@@ -6809,10 +6838,10 @@
       <c r="AE32" s="32"/>
       <c r="AF32" s="34"/>
       <c r="AG32" s="36"/>
-      <c r="AH32" s="32"/>
-      <c r="AI32" s="32"/>
-      <c r="AJ32" s="32"/>
-      <c r="AK32" s="34"/>
+      <c r="AH32" s="0"/>
+      <c r="AI32" s="0"/>
+      <c r="AJ32" s="0"/>
+      <c r="AK32" s="0"/>
     </row>
     <row r="33" spans="1:37" ht="24.000000" customHeight="1">
       <c r="A33" s="24" t="s">
@@ -6825,10 +6854,16 @@
       <c r="D33" s="96" t="s">
         <v>101</v>
       </c>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="34"/>
+      <c r="E33" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G33" s="7"/>
+      <c r="H33" s="96" t="s">
+        <v>101</v>
+      </c>
       <c r="I33" s="36"/>
       <c r="J33" s="24" t="s">
         <v>0</v>
@@ -6872,10 +6907,10 @@
       <c r="AE33" s="32"/>
       <c r="AF33" s="34"/>
       <c r="AG33" s="36"/>
-      <c r="AH33" s="32"/>
-      <c r="AI33" s="32"/>
-      <c r="AJ33" s="32"/>
-      <c r="AK33" s="34"/>
+      <c r="AH33" s="0"/>
+      <c r="AI33" s="0"/>
+      <c r="AJ33" s="0"/>
+      <c r="AK33" s="0"/>
     </row>
     <row r="34" spans="1:37" ht="24.000000" customHeight="1">
       <c r="A34" s="24" t="s">
@@ -6886,10 +6921,14 @@
       </c>
       <c r="C34" s="51"/>
       <c r="D34" s="97"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="34"/>
+      <c r="E34" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="51"/>
+      <c r="H34" s="97"/>
       <c r="I34" s="36"/>
       <c r="J34" s="24" t="s">
         <v>15</v>
@@ -6927,10 +6966,10 @@
       <c r="AE34" s="32"/>
       <c r="AF34" s="34"/>
       <c r="AG34" s="36"/>
-      <c r="AH34" s="32"/>
-      <c r="AI34" s="32"/>
-      <c r="AJ34" s="32"/>
-      <c r="AK34" s="34"/>
+      <c r="AH34" s="0"/>
+      <c r="AI34" s="0"/>
+      <c r="AJ34" s="0"/>
+      <c r="AK34" s="0"/>
     </row>
     <row r="35" spans="1:37" ht="24.000000" customHeight="1">
       <c r="A35" s="24" t="s">
@@ -6941,10 +6980,14 @@
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="96"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="34"/>
+      <c r="E35" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G35" s="7"/>
+      <c r="H35" s="96"/>
       <c r="I35" s="36"/>
       <c r="J35" s="24" t="s">
         <v>1</v>
@@ -6982,10 +7025,10 @@
       <c r="AE35" s="32"/>
       <c r="AF35" s="34"/>
       <c r="AG35" s="36"/>
-      <c r="AH35" s="32"/>
-      <c r="AI35" s="32"/>
-      <c r="AJ35" s="32"/>
-      <c r="AK35" s="34"/>
+      <c r="AH35" s="0"/>
+      <c r="AI35" s="0"/>
+      <c r="AJ35" s="0"/>
+      <c r="AK35" s="0"/>
     </row>
     <row r="36" spans="1:37" ht="24.000000" customHeight="1">
       <c r="A36" s="24" t="s">
@@ -6997,11 +7040,21 @@
       <c r="C36" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="49"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="34"/>
+      <c r="D36" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="H36" s="49" t="s">
+        <v>115</v>
+      </c>
       <c r="I36" s="36"/>
       <c r="J36" s="24" t="s">
         <v>7</v>
@@ -7012,7 +7065,9 @@
       <c r="L36" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="M36" s="74"/>
+      <c r="M36" s="74" t="s">
+        <v>121</v>
+      </c>
       <c r="N36" s="27"/>
       <c r="O36" s="24" t="s">
         <v>7</v>
@@ -7023,7 +7078,9 @@
       <c r="Q36" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="R36" s="49"/>
+      <c r="R36" s="49" t="s">
+        <v>127</v>
+      </c>
       <c r="S36" s="24" t="s">
         <v>7</v>
       </c>
@@ -7033,7 +7090,9 @@
       <c r="U36" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="V36" s="74"/>
+      <c r="V36" s="74" t="s">
+        <v>132</v>
+      </c>
       <c r="W36" s="27"/>
       <c r="X36" s="32"/>
       <c r="Y36" s="32"/>
@@ -7045,10 +7104,10 @@
       <c r="AE36" s="32"/>
       <c r="AF36" s="34"/>
       <c r="AG36" s="36"/>
-      <c r="AH36" s="32"/>
-      <c r="AI36" s="32"/>
-      <c r="AJ36" s="32"/>
-      <c r="AK36" s="34"/>
+      <c r="AH36" s="0"/>
+      <c r="AI36" s="0"/>
+      <c r="AJ36" s="0"/>
+      <c r="AK36" s="0"/>
     </row>
     <row r="37" spans="1:37" ht="24.000000" customHeight="1">
       <c r="A37" s="24" t="s">
@@ -7057,10 +7116,12 @@
       <c r="B37" s="72"/>
       <c r="C37" s="48"/>
       <c r="D37" s="49"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="34"/>
+      <c r="E37" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="F37" s="72"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="49"/>
       <c r="I37" s="36"/>
       <c r="J37" s="24" t="s">
         <v>2</v>
@@ -7092,10 +7153,10 @@
       <c r="AE37" s="32"/>
       <c r="AF37" s="34"/>
       <c r="AG37" s="36"/>
-      <c r="AH37" s="32"/>
-      <c r="AI37" s="32"/>
-      <c r="AJ37" s="32"/>
-      <c r="AK37" s="34"/>
+      <c r="AH37" s="0"/>
+      <c r="AI37" s="0"/>
+      <c r="AJ37" s="0"/>
+      <c r="AK37" s="0"/>
     </row>
     <row r="38" spans="1:37" ht="34.200000" customHeight="1">
       <c r="A38" s="24" t="s">
@@ -7104,10 +7165,12 @@
       <c r="B38" s="72"/>
       <c r="C38" s="7"/>
       <c r="D38" s="49"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="34"/>
+      <c r="E38" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="72"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="49"/>
       <c r="I38" s="36"/>
       <c r="J38" s="24" t="s">
         <v>3</v>
@@ -7141,20 +7204,20 @@
       <c r="AE38" s="32"/>
       <c r="AF38" s="34"/>
       <c r="AG38" s="36"/>
-      <c r="AH38" s="32"/>
-      <c r="AI38" s="32"/>
-      <c r="AJ38" s="32"/>
-      <c r="AK38" s="34"/>
+      <c r="AH38" s="0"/>
+      <c r="AI38" s="0"/>
+      <c r="AJ38" s="0"/>
+      <c r="AK38" s="0"/>
     </row>
     <row r="39" spans="1:37" ht="24.000000" customHeight="1">
       <c r="A39" s="24"/>
       <c r="B39" s="72"/>
       <c r="C39" s="7"/>
       <c r="D39" s="13"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="34"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="13"/>
       <c r="I39" s="36"/>
       <c r="J39" s="24"/>
       <c r="K39" s="72"/>
@@ -7180,41 +7243,53 @@
       <c r="AE39" s="32"/>
       <c r="AF39" s="34"/>
       <c r="AG39" s="36"/>
-      <c r="AH39" s="32"/>
-      <c r="AI39" s="32"/>
-      <c r="AJ39" s="32"/>
-      <c r="AK39" s="34"/>
+      <c r="AH39" s="0"/>
+      <c r="AI39" s="0"/>
+      <c r="AJ39" s="0"/>
+      <c r="AK39" s="0"/>
     </row>
     <row r="40" spans="1:37" ht="24.000000" customHeight="1">
       <c r="A40" s="24"/>
       <c r="B40" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="7"/>
+      <c r="C40" s="7" t="s">
+        <v>106</v>
+      </c>
       <c r="D40" s="13"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="34"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H40" s="13"/>
       <c r="I40" s="36"/>
       <c r="J40" s="24"/>
       <c r="K40" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L40" s="7"/>
+      <c r="L40" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="M40" s="33"/>
       <c r="N40" s="31"/>
       <c r="O40" s="24"/>
       <c r="P40" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="Q40" s="5"/>
+      <c r="Q40" s="5" t="s">
+        <v>106</v>
+      </c>
       <c r="R40" s="13"/>
       <c r="S40" s="24"/>
       <c r="T40" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="U40" s="5"/>
+      <c r="U40" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="V40" s="33"/>
       <c r="W40" s="31"/>
       <c r="X40" s="32"/>
@@ -7227,41 +7302,53 @@
       <c r="AE40" s="32"/>
       <c r="AF40" s="34"/>
       <c r="AG40" s="36"/>
-      <c r="AH40" s="32"/>
-      <c r="AI40" s="32"/>
-      <c r="AJ40" s="32"/>
-      <c r="AK40" s="34"/>
+      <c r="AH40" s="0"/>
+      <c r="AI40" s="0"/>
+      <c r="AJ40" s="0"/>
+      <c r="AK40" s="0"/>
     </row>
     <row r="41" spans="1:37" ht="24.000000" customHeight="1">
       <c r="A41" s="24"/>
       <c r="B41" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="7"/>
+      <c r="C41" s="7" t="s">
+        <v>113</v>
+      </c>
       <c r="D41" s="13"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="34"/>
+      <c r="E41" s="73"/>
+      <c r="F41" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="G41" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="H41" s="38"/>
       <c r="I41" s="36"/>
       <c r="J41" s="24"/>
       <c r="K41" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="L41" s="7"/>
+      <c r="L41" s="7" t="s">
+        <v>113</v>
+      </c>
       <c r="M41" s="33"/>
       <c r="N41" s="31"/>
       <c r="O41" s="24"/>
       <c r="P41" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="Q41" s="5"/>
+      <c r="Q41" s="5" t="s">
+        <v>114</v>
+      </c>
       <c r="R41" s="13"/>
       <c r="S41" s="24"/>
       <c r="T41" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="U41" s="5"/>
+      <c r="U41" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="V41" s="33"/>
       <c r="W41" s="31"/>
       <c r="X41" s="32"/>
@@ -7274,10 +7361,10 @@
       <c r="AE41" s="32"/>
       <c r="AF41" s="34"/>
       <c r="AG41" s="36"/>
-      <c r="AH41" s="32"/>
-      <c r="AI41" s="32"/>
-      <c r="AJ41" s="32"/>
-      <c r="AK41" s="34"/>
+      <c r="AH41" s="0"/>
+      <c r="AI41" s="0"/>
+      <c r="AJ41" s="0"/>
+      <c r="AK41" s="0"/>
     </row>
     <row r="42" spans="1:37" ht="24.000000" customHeight="1">
       <c r="A42" s="32"/>
@@ -7313,37 +7400,21 @@
       <c r="AE42" s="32"/>
       <c r="AF42" s="34"/>
       <c r="AG42" s="36"/>
-      <c r="AH42" s="32"/>
-      <c r="AI42" s="32"/>
-      <c r="AJ42" s="32"/>
-      <c r="AK42" s="34"/>
+      <c r="AH42" s="0"/>
+      <c r="AI42" s="0"/>
+      <c r="AJ42" s="0"/>
+      <c r="AK42" s="0"/>
     </row>
     <row r="43" spans="1:37" ht="24.000000" customHeight="1">
-      <c r="A43" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="96" t="s">
-        <v>101</v>
-      </c>
       <c r="E43" s="32"/>
       <c r="F43" s="32"/>
       <c r="G43" s="32"/>
       <c r="H43" s="34"/>
       <c r="I43" s="36"/>
-      <c r="J43" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L43" s="7"/>
-      <c r="M43" s="98" t="s">
-        <v>101</v>
-      </c>
+      <c r="J43" s="32"/>
+      <c r="K43" s="32"/>
+      <c r="L43" s="32"/>
+      <c r="M43" s="34"/>
       <c r="N43" s="27"/>
       <c r="O43" s="24" t="s">
         <v>0</v>
@@ -7370,33 +7441,21 @@
       <c r="AE43" s="32"/>
       <c r="AF43" s="34"/>
       <c r="AG43" s="36"/>
-      <c r="AH43" s="32"/>
-      <c r="AI43" s="32"/>
-      <c r="AJ43" s="32"/>
-      <c r="AK43" s="34"/>
+      <c r="AH43" s="0"/>
+      <c r="AI43" s="0"/>
+      <c r="AJ43" s="0"/>
+      <c r="AK43" s="0"/>
     </row>
     <row r="44" spans="1:37" ht="24.000000" customHeight="1">
-      <c r="A44" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B44" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" s="51"/>
-      <c r="D44" s="97"/>
       <c r="E44" s="32"/>
       <c r="F44" s="32"/>
       <c r="G44" s="32"/>
       <c r="H44" s="34"/>
       <c r="I44" s="36"/>
-      <c r="J44" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="K44" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="L44" s="51"/>
-      <c r="M44" s="99"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="32"/>
+      <c r="L44" s="32"/>
+      <c r="M44" s="34"/>
       <c r="N44" s="30"/>
       <c r="O44" s="24" t="s">
         <v>15</v>
@@ -7421,33 +7480,21 @@
       <c r="AE44" s="32"/>
       <c r="AF44" s="34"/>
       <c r="AG44" s="36"/>
-      <c r="AH44" s="32"/>
-      <c r="AI44" s="32"/>
-      <c r="AJ44" s="32"/>
-      <c r="AK44" s="34"/>
+      <c r="AH44" s="0"/>
+      <c r="AI44" s="0"/>
+      <c r="AJ44" s="0"/>
+      <c r="AK44" s="0"/>
     </row>
     <row r="45" spans="1:37" ht="24.000000" customHeight="1">
-      <c r="A45" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="96"/>
       <c r="E45" s="32"/>
       <c r="F45" s="32"/>
       <c r="G45" s="32"/>
       <c r="H45" s="34"/>
       <c r="I45" s="36"/>
-      <c r="J45" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L45" s="7"/>
-      <c r="M45" s="98"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="32"/>
+      <c r="L45" s="32"/>
+      <c r="M45" s="34"/>
       <c r="N45" s="27"/>
       <c r="O45" s="24" t="s">
         <v>1</v>
@@ -7472,37 +7519,21 @@
       <c r="AE45" s="32"/>
       <c r="AF45" s="34"/>
       <c r="AG45" s="36"/>
-      <c r="AH45" s="32"/>
-      <c r="AI45" s="32"/>
-      <c r="AJ45" s="32"/>
-      <c r="AK45" s="34"/>
+      <c r="AH45" s="0"/>
+      <c r="AI45" s="0"/>
+      <c r="AJ45" s="0"/>
+      <c r="AK45" s="0"/>
     </row>
     <row r="46" spans="1:37" ht="24.000000" customHeight="1">
-      <c r="A46" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B46" s="72" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="D46" s="49"/>
       <c r="E46" s="32"/>
       <c r="F46" s="32"/>
       <c r="G46" s="32"/>
       <c r="H46" s="34"/>
       <c r="I46" s="36"/>
-      <c r="J46" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="K46" s="72" t="s">
-        <v>4</v>
-      </c>
-      <c r="L46" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="M46" s="74"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="32"/>
+      <c r="L46" s="32"/>
+      <c r="M46" s="34"/>
       <c r="N46" s="27"/>
       <c r="O46" s="24" t="s">
         <v>7</v>
@@ -7513,7 +7544,9 @@
       <c r="Q46" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="R46" s="49"/>
+      <c r="R46" s="49" t="s">
+        <v>128</v>
+      </c>
       <c r="S46" s="32"/>
       <c r="T46" s="32"/>
       <c r="U46" s="32"/>
@@ -7529,29 +7562,21 @@
       <c r="AE46" s="32"/>
       <c r="AF46" s="34"/>
       <c r="AG46" s="36"/>
-      <c r="AH46" s="32"/>
-      <c r="AI46" s="32"/>
-      <c r="AJ46" s="32"/>
-      <c r="AK46" s="34"/>
+      <c r="AH46" s="0"/>
+      <c r="AI46" s="0"/>
+      <c r="AJ46" s="0"/>
+      <c r="AK46" s="0"/>
     </row>
     <row r="47" spans="1:37" ht="24.000000" customHeight="1">
-      <c r="A47" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="B47" s="72"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="49"/>
       <c r="E47" s="32"/>
       <c r="F47" s="32"/>
       <c r="G47" s="32"/>
       <c r="H47" s="34"/>
       <c r="I47" s="36"/>
-      <c r="J47" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="K47" s="72"/>
-      <c r="L47" s="48"/>
-      <c r="M47" s="74"/>
+      <c r="J47" s="32"/>
+      <c r="K47" s="32"/>
+      <c r="L47" s="32"/>
+      <c r="M47" s="34"/>
       <c r="N47" s="27"/>
       <c r="O47" s="24" t="s">
         <v>2</v>
@@ -7574,31 +7599,21 @@
       <c r="AE47" s="32"/>
       <c r="AF47" s="34"/>
       <c r="AG47" s="36"/>
-      <c r="AH47" s="32"/>
-      <c r="AI47" s="32"/>
-      <c r="AJ47" s="32"/>
-      <c r="AK47" s="34"/>
+      <c r="AH47" s="0"/>
+      <c r="AI47" s="0"/>
+      <c r="AJ47" s="0"/>
+      <c r="AK47" s="0"/>
     </row>
     <row r="48" spans="1:37" ht="24.000000" customHeight="1">
-      <c r="A48" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="B48" s="72"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="49"/>
       <c r="E48" s="32"/>
       <c r="F48" s="32"/>
       <c r="G48" s="32"/>
       <c r="H48" s="34"/>
       <c r="I48" s="36"/>
-      <c r="J48" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="K48" s="72"/>
-      <c r="L48" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="M48" s="74"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="32"/>
+      <c r="L48" s="32"/>
+      <c r="M48" s="34"/>
       <c r="N48" s="27"/>
       <c r="O48" s="24" t="s">
         <v>3</v>
@@ -7621,25 +7636,21 @@
       <c r="AE48" s="32"/>
       <c r="AF48" s="34"/>
       <c r="AG48" s="36"/>
-      <c r="AH48" s="32"/>
-      <c r="AI48" s="32"/>
-      <c r="AJ48" s="32"/>
-      <c r="AK48" s="34"/>
-    </row>
-    <row r="49" spans="1:37" ht="24.000000" customHeight="1">
-      <c r="A49" s="24"/>
-      <c r="B49" s="72"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="13"/>
+      <c r="AH48" s="0"/>
+      <c r="AI48" s="0"/>
+      <c r="AJ48" s="0"/>
+      <c r="AK48" s="0"/>
+    </row>
+    <row r="49" spans="5:37" ht="24.000000" customHeight="1">
       <c r="E49" s="32"/>
       <c r="F49" s="32"/>
       <c r="G49" s="32"/>
       <c r="H49" s="34"/>
       <c r="I49" s="36"/>
-      <c r="J49" s="24"/>
-      <c r="K49" s="72"/>
-      <c r="L49" s="7"/>
-      <c r="M49" s="33"/>
+      <c r="J49" s="32"/>
+      <c r="K49" s="32"/>
+      <c r="L49" s="32"/>
+      <c r="M49" s="34"/>
       <c r="N49" s="31"/>
       <c r="O49" s="24"/>
       <c r="P49" s="72"/>
@@ -7660,35 +7671,29 @@
       <c r="AE49" s="32"/>
       <c r="AF49" s="34"/>
       <c r="AG49" s="36"/>
-      <c r="AH49" s="32"/>
-      <c r="AI49" s="32"/>
-      <c r="AJ49" s="32"/>
-      <c r="AK49" s="34"/>
-    </row>
-    <row r="50" spans="1:37" ht="24.000000" customHeight="1">
-      <c r="A50" s="24"/>
-      <c r="B50" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="13"/>
+      <c r="AH49" s="0"/>
+      <c r="AI49" s="0"/>
+      <c r="AJ49" s="0"/>
+      <c r="AK49" s="0"/>
+    </row>
+    <row r="50" spans="5:37" ht="24.000000" customHeight="1">
       <c r="E50" s="32"/>
       <c r="F50" s="32"/>
       <c r="G50" s="32"/>
       <c r="H50" s="34"/>
       <c r="I50" s="36"/>
-      <c r="J50" s="24"/>
-      <c r="K50" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="L50" s="7"/>
-      <c r="M50" s="33"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="34"/>
       <c r="N50" s="31"/>
       <c r="O50" s="24"/>
       <c r="P50" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="Q50" s="5"/>
+      <c r="Q50" s="5" t="s">
+        <v>106</v>
+      </c>
       <c r="R50" s="13"/>
       <c r="S50" s="32"/>
       <c r="T50" s="32"/>
@@ -7705,35 +7710,29 @@
       <c r="AE50" s="32"/>
       <c r="AF50" s="34"/>
       <c r="AG50" s="36"/>
-      <c r="AH50" s="32"/>
-      <c r="AI50" s="32"/>
-      <c r="AJ50" s="32"/>
-      <c r="AK50" s="34"/>
-    </row>
-    <row r="51" spans="1:37" ht="24.000000" customHeight="1">
-      <c r="A51" s="73"/>
-      <c r="B51" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="37"/>
-      <c r="D51" s="38"/>
+      <c r="AH50" s="0"/>
+      <c r="AI50" s="0"/>
+      <c r="AJ50" s="0"/>
+      <c r="AK50" s="0"/>
+    </row>
+    <row r="51" spans="5:37" ht="24.000000" customHeight="1">
       <c r="E51" s="39"/>
       <c r="F51" s="39"/>
       <c r="G51" s="39"/>
       <c r="H51" s="40"/>
       <c r="I51" s="41"/>
-      <c r="J51" s="73"/>
-      <c r="K51" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="L51" s="37"/>
-      <c r="M51" s="42"/>
+      <c r="J51" s="39"/>
+      <c r="K51" s="39"/>
+      <c r="L51" s="39"/>
+      <c r="M51" s="40"/>
       <c r="N51" s="43"/>
       <c r="O51" s="73"/>
       <c r="P51" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="Q51" s="44"/>
+      <c r="Q51" s="44" t="s">
+        <v>113</v>
+      </c>
       <c r="R51" s="38"/>
       <c r="S51" s="39"/>
       <c r="T51" s="39"/>
@@ -7750,20 +7749,19 @@
       <c r="AE51" s="39"/>
       <c r="AF51" s="40"/>
       <c r="AG51" s="41"/>
-      <c r="AH51" s="39"/>
-      <c r="AI51" s="39"/>
-      <c r="AJ51" s="39"/>
-      <c r="AK51" s="40"/>
+      <c r="AH51" s="0"/>
+      <c r="AI51" s="0"/>
+      <c r="AJ51" s="0"/>
+      <c r="AK51" s="0"/>
     </row>
   </sheetData>
-  <mergeCells count="215">
+  <mergeCells count="191">
     <mergeCell ref="A1:AK1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="O2:V2"/>
     <mergeCell ref="X2:AA2"/>
     <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AH2:AK2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="F3:G3"/>
@@ -7779,8 +7777,6 @@
     <mergeCell ref="AD3:AE3"/>
     <mergeCell ref="AF3:AF5"/>
     <mergeCell ref="AG3:AG11"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AK5"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="K4:L4"/>
@@ -7788,7 +7784,6 @@
     <mergeCell ref="T4:U4"/>
     <mergeCell ref="Y4:Z4"/>
     <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="AI4:AJ4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="K5:L5"/>
@@ -7796,7 +7791,6 @@
     <mergeCell ref="T5:U5"/>
     <mergeCell ref="Y5:Z5"/>
     <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="AI5:AJ5"/>
     <mergeCell ref="A6:A11"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="C6:C9"/>
@@ -7823,11 +7817,8 @@
     <mergeCell ref="AA6:AA8"/>
     <mergeCell ref="AC6:AC11"/>
     <mergeCell ref="AD6:AD9"/>
+    <mergeCell ref="AE6:AE7"/>
     <mergeCell ref="AF6:AF8"/>
-    <mergeCell ref="AH6:AH11"/>
-    <mergeCell ref="AI6:AI9"/>
-    <mergeCell ref="AJ6:AJ7"/>
-    <mergeCell ref="AK6:AK8"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:D15"/>
@@ -7839,8 +7830,6 @@
     <mergeCell ref="R13:R15"/>
     <mergeCell ref="T13:U13"/>
     <mergeCell ref="V13:V15"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AK13:AK15"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="K14:L14"/>
@@ -7851,7 +7840,6 @@
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="P15:Q15"/>
     <mergeCell ref="T15:U15"/>
-    <mergeCell ref="AI15:AJ15"/>
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="B16:B19"/>
     <mergeCell ref="C16:C19"/>
@@ -7872,11 +7860,6 @@
     <mergeCell ref="T16:T19"/>
     <mergeCell ref="U16:U17"/>
     <mergeCell ref="V16:V18"/>
-    <mergeCell ref="AH16:AH21"/>
-    <mergeCell ref="AI16:AI19"/>
-    <mergeCell ref="AJ16:AJ17"/>
-    <mergeCell ref="AK16:AK18"/>
-    <mergeCell ref="AJ18:AJ19"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="D23:D25"/>
     <mergeCell ref="F23:G23"/>
@@ -7918,6 +7901,8 @@
     <mergeCell ref="V26:V28"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D33:D35"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:H35"/>
     <mergeCell ref="K33:L33"/>
     <mergeCell ref="M33:M35"/>
     <mergeCell ref="P33:Q33"/>
@@ -7925,10 +7910,12 @@
     <mergeCell ref="T33:U33"/>
     <mergeCell ref="V33:V35"/>
     <mergeCell ref="B34:C34"/>
+    <mergeCell ref="F34:G34"/>
     <mergeCell ref="K34:L34"/>
     <mergeCell ref="P34:Q34"/>
     <mergeCell ref="T34:U34"/>
     <mergeCell ref="B35:C35"/>
+    <mergeCell ref="F35:G35"/>
     <mergeCell ref="K35:L35"/>
     <mergeCell ref="P35:Q35"/>
     <mergeCell ref="T35:U35"/>
@@ -7936,6 +7923,10 @@
     <mergeCell ref="B36:B39"/>
     <mergeCell ref="C36:C37"/>
     <mergeCell ref="D36:D38"/>
+    <mergeCell ref="E36:E41"/>
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H38"/>
     <mergeCell ref="J36:J41"/>
     <mergeCell ref="K36:K39"/>
     <mergeCell ref="L36:L37"/>
@@ -7948,26 +7939,10 @@
     <mergeCell ref="T36:T39"/>
     <mergeCell ref="U36:U37"/>
     <mergeCell ref="V36:V38"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="M43:M45"/>
     <mergeCell ref="P43:Q43"/>
     <mergeCell ref="R43:R45"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="K44:L44"/>
     <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="K45:L45"/>
     <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="A46:A51"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="J46:J51"/>
-    <mergeCell ref="K46:K49"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="M46:M48"/>
     <mergeCell ref="O46:O51"/>
     <mergeCell ref="P46:P49"/>
     <mergeCell ref="Q46:Q47"/>
@@ -7976,5 +7951,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Project_Design/요구 사항 분석서/요구 사항 분석서.xlsx
+++ b/Project_Design/요구 사항 분석서/요구 사항 분석서.xlsx
@@ -5076,7 +5076,7 @@
   <dimension ref="A1:AK51"/>
   <sheetViews>
     <sheetView topLeftCell="E1" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="U21" sqref="U21"/>
+      <selection activeCell="Y20" sqref="Y20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -6031,7 +6031,7 @@
       <c r="AF16" s="34"/>
       <c r="AG16" s="36"/>
     </row>
-    <row r="17" spans="1:37" ht="24.000000" customHeight="1">
+    <row r="17" spans="1:33" ht="24.000000" customHeight="1">
       <c r="A17" s="24" t="s">
         <v>2</v>
       </c>
@@ -6076,7 +6076,7 @@
       <c r="AF17" s="34"/>
       <c r="AG17" s="36"/>
     </row>
-    <row r="18" spans="1:37" ht="24.000000" customHeight="1">
+    <row r="18" spans="1:33" ht="24.000000" customHeight="1">
       <c r="A18" s="24" t="s">
         <v>3</v>
       </c>
@@ -6121,7 +6121,7 @@
       <c r="AF18" s="34"/>
       <c r="AG18" s="36"/>
     </row>
-    <row r="19" spans="1:37" ht="24.000000" customHeight="1">
+    <row r="19" spans="1:33" ht="24.000000" customHeight="1">
       <c r="A19" s="24"/>
       <c r="B19" s="72"/>
       <c r="C19" s="48"/>
@@ -6156,7 +6156,7 @@
       <c r="AF19" s="34"/>
       <c r="AG19" s="36"/>
     </row>
-    <row r="20" spans="1:37" ht="24.000000" customHeight="1">
+    <row r="20" spans="1:33" ht="24.000000" customHeight="1">
       <c r="A20" s="24"/>
       <c r="B20" s="5" t="s">
         <v>8</v>
@@ -6211,7 +6211,7 @@
       <c r="AF20" s="34"/>
       <c r="AG20" s="36"/>
     </row>
-    <row r="21" spans="1:37" ht="24.000000" customHeight="1">
+    <row r="21" spans="1:33" ht="24.000000" customHeight="1">
       <c r="A21" s="24"/>
       <c r="B21" s="5" t="s">
         <v>6</v>
@@ -6266,7 +6266,7 @@
       <c r="AF21" s="34"/>
       <c r="AG21" s="36"/>
     </row>
-    <row r="22" spans="1:37" ht="24.000000" customHeight="1">
+    <row r="22" spans="1:33" ht="24.000000" customHeight="1">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -6301,7 +6301,7 @@
       <c r="AF22" s="34"/>
       <c r="AG22" s="36"/>
     </row>
-    <row r="23" spans="1:37" ht="24.000000" customHeight="1">
+    <row r="23" spans="1:33" ht="24.000000" customHeight="1">
       <c r="A23" s="24" t="s">
         <v>0</v>
       </c>
@@ -6366,7 +6366,7 @@
       <c r="AF23" s="34"/>
       <c r="AG23" s="36"/>
     </row>
-    <row r="24" spans="1:37" ht="24.000000" customHeight="1">
+    <row r="24" spans="1:33" ht="24.000000" customHeight="1">
       <c r="A24" s="24" t="s">
         <v>15</v>
       </c>
@@ -6421,7 +6421,7 @@
       <c r="AF24" s="34"/>
       <c r="AG24" s="36"/>
     </row>
-    <row r="25" spans="1:37" ht="24.000000" customHeight="1">
+    <row r="25" spans="1:33" ht="24.000000" customHeight="1">
       <c r="A25" s="24" t="s">
         <v>1</v>
       </c>
@@ -6476,7 +6476,7 @@
       <c r="AF25" s="34"/>
       <c r="AG25" s="36"/>
     </row>
-    <row r="26" spans="1:37" ht="24.000000" customHeight="1">
+    <row r="26" spans="1:33" ht="24.000000" customHeight="1">
       <c r="A26" s="24" t="s">
         <v>7</v>
       </c>
@@ -6551,7 +6551,7 @@
       <c r="AF26" s="34"/>
       <c r="AG26" s="36"/>
     </row>
-    <row r="27" spans="1:37" ht="24.000000" customHeight="1">
+    <row r="27" spans="1:33" ht="24.000000" customHeight="1">
       <c r="A27" s="24" t="s">
         <v>2</v>
       </c>
@@ -6598,7 +6598,7 @@
       <c r="AF27" s="34"/>
       <c r="AG27" s="36"/>
     </row>
-    <row r="28" spans="1:37" ht="24.000000" customHeight="1">
+    <row r="28" spans="1:33" ht="24.000000" customHeight="1">
       <c r="A28" s="24" t="s">
         <v>3</v>
       </c>
@@ -6642,12 +6642,8 @@
       <c r="AE28" s="32"/>
       <c r="AF28" s="34"/>
       <c r="AG28" s="36"/>
-      <c r="AH28" s="0"/>
-      <c r="AI28" s="0"/>
-      <c r="AJ28" s="0"/>
-      <c r="AK28" s="0"/>
-    </row>
-    <row r="29" spans="1:37" ht="24.000000" customHeight="1">
+    </row>
+    <row r="29" spans="1:33" ht="24.000000" customHeight="1">
       <c r="A29" s="24"/>
       <c r="B29" s="72"/>
       <c r="C29" s="7"/>
@@ -6681,12 +6677,8 @@
       <c r="AE29" s="32"/>
       <c r="AF29" s="34"/>
       <c r="AG29" s="36"/>
-      <c r="AH29" s="0"/>
-      <c r="AI29" s="0"/>
-      <c r="AJ29" s="0"/>
-      <c r="AK29" s="0"/>
-    </row>
-    <row r="30" spans="1:37" ht="24.000000" customHeight="1">
+    </row>
+    <row r="30" spans="1:33" ht="24.000000" customHeight="1">
       <c r="A30" s="24"/>
       <c r="B30" s="7" t="s">
         <v>8</v>
@@ -6740,12 +6732,8 @@
       <c r="AE30" s="32"/>
       <c r="AF30" s="34"/>
       <c r="AG30" s="36"/>
-      <c r="AH30" s="0"/>
-      <c r="AI30" s="0"/>
-      <c r="AJ30" s="0"/>
-      <c r="AK30" s="0"/>
-    </row>
-    <row r="31" spans="1:37" ht="24.000000" customHeight="1">
+    </row>
+    <row r="31" spans="1:33" ht="24.000000" customHeight="1">
       <c r="A31" s="24"/>
       <c r="B31" s="7" t="s">
         <v>6</v>
@@ -6799,12 +6787,8 @@
       <c r="AE31" s="32"/>
       <c r="AF31" s="34"/>
       <c r="AG31" s="36"/>
-      <c r="AH31" s="0"/>
-      <c r="AI31" s="0"/>
-      <c r="AJ31" s="0"/>
-      <c r="AK31" s="0"/>
-    </row>
-    <row r="32" spans="1:37" ht="24.000000" customHeight="1">
+    </row>
+    <row r="32" spans="1:33" ht="24.000000" customHeight="1">
       <c r="A32" s="32"/>
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
@@ -6838,12 +6822,8 @@
       <c r="AE32" s="32"/>
       <c r="AF32" s="34"/>
       <c r="AG32" s="36"/>
-      <c r="AH32" s="0"/>
-      <c r="AI32" s="0"/>
-      <c r="AJ32" s="0"/>
-      <c r="AK32" s="0"/>
-    </row>
-    <row r="33" spans="1:37" ht="24.000000" customHeight="1">
+    </row>
+    <row r="33" spans="1:33" ht="24.000000" customHeight="1">
       <c r="A33" s="24" t="s">
         <v>0</v>
       </c>
@@ -6907,12 +6887,8 @@
       <c r="AE33" s="32"/>
       <c r="AF33" s="34"/>
       <c r="AG33" s="36"/>
-      <c r="AH33" s="0"/>
-      <c r="AI33" s="0"/>
-      <c r="AJ33" s="0"/>
-      <c r="AK33" s="0"/>
-    </row>
-    <row r="34" spans="1:37" ht="24.000000" customHeight="1">
+    </row>
+    <row r="34" spans="1:33" ht="24.000000" customHeight="1">
       <c r="A34" s="24" t="s">
         <v>15</v>
       </c>
@@ -6966,12 +6942,8 @@
       <c r="AE34" s="32"/>
       <c r="AF34" s="34"/>
       <c r="AG34" s="36"/>
-      <c r="AH34" s="0"/>
-      <c r="AI34" s="0"/>
-      <c r="AJ34" s="0"/>
-      <c r="AK34" s="0"/>
-    </row>
-    <row r="35" spans="1:37" ht="24.000000" customHeight="1">
+    </row>
+    <row r="35" spans="1:33" ht="24.000000" customHeight="1">
       <c r="A35" s="24" t="s">
         <v>1</v>
       </c>
@@ -7025,12 +6997,8 @@
       <c r="AE35" s="32"/>
       <c r="AF35" s="34"/>
       <c r="AG35" s="36"/>
-      <c r="AH35" s="0"/>
-      <c r="AI35" s="0"/>
-      <c r="AJ35" s="0"/>
-      <c r="AK35" s="0"/>
-    </row>
-    <row r="36" spans="1:37" ht="24.000000" customHeight="1">
+    </row>
+    <row r="36" spans="1:33" ht="24.000000" customHeight="1">
       <c r="A36" s="24" t="s">
         <v>7</v>
       </c>
@@ -7104,12 +7072,8 @@
       <c r="AE36" s="32"/>
       <c r="AF36" s="34"/>
       <c r="AG36" s="36"/>
-      <c r="AH36" s="0"/>
-      <c r="AI36" s="0"/>
-      <c r="AJ36" s="0"/>
-      <c r="AK36" s="0"/>
-    </row>
-    <row r="37" spans="1:37" ht="24.000000" customHeight="1">
+    </row>
+    <row r="37" spans="1:33" ht="24.000000" customHeight="1">
       <c r="A37" s="24" t="s">
         <v>2</v>
       </c>
@@ -7153,12 +7117,8 @@
       <c r="AE37" s="32"/>
       <c r="AF37" s="34"/>
       <c r="AG37" s="36"/>
-      <c r="AH37" s="0"/>
-      <c r="AI37" s="0"/>
-      <c r="AJ37" s="0"/>
-      <c r="AK37" s="0"/>
-    </row>
-    <row r="38" spans="1:37" ht="34.200000" customHeight="1">
+    </row>
+    <row r="38" spans="1:33" ht="34.200000" customHeight="1">
       <c r="A38" s="24" t="s">
         <v>3</v>
       </c>
@@ -7204,12 +7164,8 @@
       <c r="AE38" s="32"/>
       <c r="AF38" s="34"/>
       <c r="AG38" s="36"/>
-      <c r="AH38" s="0"/>
-      <c r="AI38" s="0"/>
-      <c r="AJ38" s="0"/>
-      <c r="AK38" s="0"/>
-    </row>
-    <row r="39" spans="1:37" ht="24.000000" customHeight="1">
+    </row>
+    <row r="39" spans="1:33" ht="24.000000" customHeight="1">
       <c r="A39" s="24"/>
       <c r="B39" s="72"/>
       <c r="C39" s="7"/>
@@ -7243,12 +7199,8 @@
       <c r="AE39" s="32"/>
       <c r="AF39" s="34"/>
       <c r="AG39" s="36"/>
-      <c r="AH39" s="0"/>
-      <c r="AI39" s="0"/>
-      <c r="AJ39" s="0"/>
-      <c r="AK39" s="0"/>
-    </row>
-    <row r="40" spans="1:37" ht="24.000000" customHeight="1">
+    </row>
+    <row r="40" spans="1:33" ht="24.000000" customHeight="1">
       <c r="A40" s="24"/>
       <c r="B40" s="7" t="s">
         <v>8</v>
@@ -7302,12 +7254,8 @@
       <c r="AE40" s="32"/>
       <c r="AF40" s="34"/>
       <c r="AG40" s="36"/>
-      <c r="AH40" s="0"/>
-      <c r="AI40" s="0"/>
-      <c r="AJ40" s="0"/>
-      <c r="AK40" s="0"/>
-    </row>
-    <row r="41" spans="1:37" ht="24.000000" customHeight="1">
+    </row>
+    <row r="41" spans="1:33" ht="24.000000" customHeight="1">
       <c r="A41" s="24"/>
       <c r="B41" s="7" t="s">
         <v>6</v>
@@ -7361,12 +7309,8 @@
       <c r="AE41" s="32"/>
       <c r="AF41" s="34"/>
       <c r="AG41" s="36"/>
-      <c r="AH41" s="0"/>
-      <c r="AI41" s="0"/>
-      <c r="AJ41" s="0"/>
-      <c r="AK41" s="0"/>
-    </row>
-    <row r="42" spans="1:37" ht="24.000000" customHeight="1">
+    </row>
+    <row r="42" spans="1:33" ht="24.000000" customHeight="1">
       <c r="A42" s="32"/>
       <c r="B42" s="32"/>
       <c r="C42" s="32"/>
@@ -7400,12 +7344,8 @@
       <c r="AE42" s="32"/>
       <c r="AF42" s="34"/>
       <c r="AG42" s="36"/>
-      <c r="AH42" s="0"/>
-      <c r="AI42" s="0"/>
-      <c r="AJ42" s="0"/>
-      <c r="AK42" s="0"/>
-    </row>
-    <row r="43" spans="1:37" ht="24.000000" customHeight="1">
+    </row>
+    <row r="43" spans="1:33" ht="24.000000" customHeight="1">
       <c r="E43" s="32"/>
       <c r="F43" s="32"/>
       <c r="G43" s="32"/>
@@ -7441,12 +7381,8 @@
       <c r="AE43" s="32"/>
       <c r="AF43" s="34"/>
       <c r="AG43" s="36"/>
-      <c r="AH43" s="0"/>
-      <c r="AI43" s="0"/>
-      <c r="AJ43" s="0"/>
-      <c r="AK43" s="0"/>
-    </row>
-    <row r="44" spans="1:37" ht="24.000000" customHeight="1">
+    </row>
+    <row r="44" spans="1:33" ht="24.000000" customHeight="1">
       <c r="E44" s="32"/>
       <c r="F44" s="32"/>
       <c r="G44" s="32"/>
@@ -7480,12 +7416,8 @@
       <c r="AE44" s="32"/>
       <c r="AF44" s="34"/>
       <c r="AG44" s="36"/>
-      <c r="AH44" s="0"/>
-      <c r="AI44" s="0"/>
-      <c r="AJ44" s="0"/>
-      <c r="AK44" s="0"/>
-    </row>
-    <row r="45" spans="1:37" ht="24.000000" customHeight="1">
+    </row>
+    <row r="45" spans="1:33" ht="24.000000" customHeight="1">
       <c r="E45" s="32"/>
       <c r="F45" s="32"/>
       <c r="G45" s="32"/>
@@ -7519,12 +7451,8 @@
       <c r="AE45" s="32"/>
       <c r="AF45" s="34"/>
       <c r="AG45" s="36"/>
-      <c r="AH45" s="0"/>
-      <c r="AI45" s="0"/>
-      <c r="AJ45" s="0"/>
-      <c r="AK45" s="0"/>
-    </row>
-    <row r="46" spans="1:37" ht="24.000000" customHeight="1">
+    </row>
+    <row r="46" spans="1:33" ht="24.000000" customHeight="1">
       <c r="E46" s="32"/>
       <c r="F46" s="32"/>
       <c r="G46" s="32"/>
@@ -7562,12 +7490,8 @@
       <c r="AE46" s="32"/>
       <c r="AF46" s="34"/>
       <c r="AG46" s="36"/>
-      <c r="AH46" s="0"/>
-      <c r="AI46" s="0"/>
-      <c r="AJ46" s="0"/>
-      <c r="AK46" s="0"/>
-    </row>
-    <row r="47" spans="1:37" ht="24.000000" customHeight="1">
+    </row>
+    <row r="47" spans="1:33" ht="24.000000" customHeight="1">
       <c r="E47" s="32"/>
       <c r="F47" s="32"/>
       <c r="G47" s="32"/>
@@ -7599,12 +7523,8 @@
       <c r="AE47" s="32"/>
       <c r="AF47" s="34"/>
       <c r="AG47" s="36"/>
-      <c r="AH47" s="0"/>
-      <c r="AI47" s="0"/>
-      <c r="AJ47" s="0"/>
-      <c r="AK47" s="0"/>
-    </row>
-    <row r="48" spans="1:37" ht="24.000000" customHeight="1">
+    </row>
+    <row r="48" spans="1:33" ht="24.000000" customHeight="1">
       <c r="E48" s="32"/>
       <c r="F48" s="32"/>
       <c r="G48" s="32"/>
@@ -7636,12 +7556,8 @@
       <c r="AE48" s="32"/>
       <c r="AF48" s="34"/>
       <c r="AG48" s="36"/>
-      <c r="AH48" s="0"/>
-      <c r="AI48" s="0"/>
-      <c r="AJ48" s="0"/>
-      <c r="AK48" s="0"/>
-    </row>
-    <row r="49" spans="5:37" ht="24.000000" customHeight="1">
+    </row>
+    <row r="49" spans="5:33" ht="24.000000" customHeight="1">
       <c r="E49" s="32"/>
       <c r="F49" s="32"/>
       <c r="G49" s="32"/>
@@ -7671,12 +7587,8 @@
       <c r="AE49" s="32"/>
       <c r="AF49" s="34"/>
       <c r="AG49" s="36"/>
-      <c r="AH49" s="0"/>
-      <c r="AI49" s="0"/>
-      <c r="AJ49" s="0"/>
-      <c r="AK49" s="0"/>
-    </row>
-    <row r="50" spans="5:37" ht="24.000000" customHeight="1">
+    </row>
+    <row r="50" spans="5:33" ht="24.000000" customHeight="1">
       <c r="E50" s="32"/>
       <c r="F50" s="32"/>
       <c r="G50" s="32"/>
@@ -7710,12 +7622,8 @@
       <c r="AE50" s="32"/>
       <c r="AF50" s="34"/>
       <c r="AG50" s="36"/>
-      <c r="AH50" s="0"/>
-      <c r="AI50" s="0"/>
-      <c r="AJ50" s="0"/>
-      <c r="AK50" s="0"/>
-    </row>
-    <row r="51" spans="5:37" ht="24.000000" customHeight="1">
+    </row>
+    <row r="51" spans="5:33" ht="24.000000" customHeight="1">
       <c r="E51" s="39"/>
       <c r="F51" s="39"/>
       <c r="G51" s="39"/>
@@ -7749,10 +7657,6 @@
       <c r="AE51" s="39"/>
       <c r="AF51" s="40"/>
       <c r="AG51" s="41"/>
-      <c r="AH51" s="0"/>
-      <c r="AI51" s="0"/>
-      <c r="AJ51" s="0"/>
-      <c r="AK51" s="0"/>
     </row>
   </sheetData>
   <mergeCells count="191">
